--- a/PIPESTONE_PPF_MODBUS_MAP_REV_3.xlsx
+++ b/PIPESTONE_PPF_MODBUS_MAP_REV_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougd\Desktop\git\OVINTIV_PIPESTONE_PPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6899C0FD-14BF-4935-B612-62B0B4AD028D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B818972E-55CD-46E3-8208-C676877DDF86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27270" yWindow="795" windowWidth="26730" windowHeight="14475" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27270" yWindow="795" windowWidth="26730" windowHeight="14475" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision Changes" sheetId="18" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="A" localSheetId="1">#REF!</definedName>
     <definedName name="A" localSheetId="2">#REF!</definedName>
     <definedName name="A">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">HMI_Datamap!$A$1:$P$121</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">HMI_Datamap!$A$1:$P$133</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">PPF_CLIENT_Datamap!$A$1:$O$82</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">HMI_Datamap!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">PPF_CLIENT_Datamap!#REF!</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="421">
   <si>
     <t>From</t>
   </si>
@@ -394,16 +394,10 @@
     <t>Stream 1 - Analyzer Ready For Sample Collection</t>
   </si>
   <si>
-    <t>00027</t>
-  </si>
-  <si>
     <t>Stream_1_Sample_Source</t>
   </si>
   <si>
     <t>Stream 1 - Sample Request Source</t>
-  </si>
-  <si>
-    <t>00028</t>
   </si>
   <si>
     <t>HMI</t>
@@ -421,9 +415,6 @@
   <si>
     <t xml:space="preserve">Stream 1 - Active Alarm
 </t>
-  </si>
-  <si>
-    <t>00029</t>
   </si>
   <si>
     <t>ALARM</t>
@@ -1516,6 +1507,45 @@
   <si>
     <t>DD</t>
   </si>
+  <si>
+    <t>00030</t>
+  </si>
+  <si>
+    <t>00031</t>
+  </si>
+  <si>
+    <t>00032</t>
+  </si>
+  <si>
+    <t>00033</t>
+  </si>
+  <si>
+    <t>00034</t>
+  </si>
+  <si>
+    <t>00035</t>
+  </si>
+  <si>
+    <t>00036</t>
+  </si>
+  <si>
+    <t>00037</t>
+  </si>
+  <si>
+    <t>00038</t>
+  </si>
+  <si>
+    <t>00039</t>
+  </si>
+  <si>
+    <t>00040</t>
+  </si>
+  <si>
+    <t>00041</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
 </sst>
 </file>
 
@@ -1523,9 +1553,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1733,8 +1763,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1940,6 +1975,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2336,7 +2377,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2495,6 +2536,7 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2519,7 +2561,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="101">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3021,7 +3071,7 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="61.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="64"/>
+    <col min="5" max="5" width="8.88671875" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3059,7 +3109,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="56">
         <v>43585</v>
       </c>
     </row>
@@ -3071,7 +3121,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3085,12 +3135,12 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D5" t="s">
-        <v>410</v>
-      </c>
-      <c r="E5" s="64">
+        <v>407</v>
+      </c>
+      <c r="E5" s="56">
         <v>44001</v>
       </c>
     </row>
@@ -3105,10 +3155,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:Q121"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3119,12 +3169,12 @@
     <col min="4" max="4" width="50.109375" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="24" style="9" customWidth="1"/>
     <col min="9" max="9" width="7.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" customWidth="1"/>
     <col min="14" max="14" width="11.88671875" customWidth="1"/>
     <col min="15" max="15" width="41.88671875" customWidth="1"/>
@@ -3132,24 +3182,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
       <c r="P1" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3381,7 +3431,7 @@
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="49" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>28</v>
@@ -3473,7 +3523,7 @@
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="49" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>28</v>
@@ -3519,7 +3569,7 @@
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="49" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>28</v>
@@ -3565,7 +3615,7 @@
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="49" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>28</v>
@@ -3611,7 +3661,7 @@
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="49" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>28</v>
@@ -3701,7 +3751,7 @@
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="49" t="s">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>28</v>
@@ -3745,7 +3795,7 @@
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="49" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>28</v>
@@ -3816,7 +3866,7 @@
       </c>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -3859,10 +3909,10 @@
         <v>94</v>
       </c>
       <c r="P17" s="50" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>16</v>
       </c>
@@ -3881,7 +3931,7 @@
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="49" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>28</v>
@@ -3906,7 +3956,7 @@
       </c>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>17</v>
       </c>
@@ -3925,7 +3975,7 @@
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="49" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>28</v>
@@ -3950,7 +4000,7 @@
       </c>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>18</v>
       </c>
@@ -3969,7 +4019,7 @@
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="49" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>28</v>
@@ -3994,7 +4044,7 @@
       </c>
       <c r="P20" s="15"/>
     </row>
-    <row r="21" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>19</v>
       </c>
@@ -4013,7 +4063,7 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="49" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>28</v>
@@ -4038,7 +4088,7 @@
       </c>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -4057,7 +4107,7 @@
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="49" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>28</v>
@@ -4082,7 +4132,7 @@
       </c>
       <c r="P22" s="15"/>
     </row>
-    <row r="23" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>21</v>
       </c>
@@ -4101,7 +4151,7 @@
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="49" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>28</v>
@@ -4126,16 +4176,16 @@
       </c>
       <c r="P23" s="15"/>
     </row>
-    <row r="24" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>22</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>115</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>25</v>
@@ -4145,41 +4195,41 @@
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="N24" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="I24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="18" t="s">
+      <c r="O24" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N24" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="O24" s="19" t="s">
-        <v>119</v>
-      </c>
       <c r="P24" s="15"/>
     </row>
-    <row r="25" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>23</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>25</v>
@@ -4189,7 +4239,7 @@
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="49" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>28</v>
@@ -4207,600 +4257,527 @@
         <v>29</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>104</v>
       </c>
       <c r="P25" s="15"/>
     </row>
-    <row r="26" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>24</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="60"/>
-    </row>
-    <row r="27" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O26" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" s="15"/>
+    </row>
+    <row r="27" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
+        <v>23</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="26" t="s">
+      <c r="F27" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O27" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P27" s="15"/>
+    </row>
+    <row r="28" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>23</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" s="28" t="s">
+      <c r="F28" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N27" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="O27" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="P27" s="24"/>
-    </row>
-    <row r="28" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
-        <v>26</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="26" t="s">
+      <c r="N28" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" s="15"/>
+    </row>
+    <row r="29" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>23</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" s="28" t="s">
+      <c r="F29" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="O28" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="P28" s="24"/>
-    </row>
-    <row r="29" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
-        <v>27</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="26" t="s">
+      <c r="N29" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P29" s="15"/>
+    </row>
+    <row r="30" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>23</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" s="28" t="s">
+      <c r="F30" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="O29" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" s="24"/>
-    </row>
-    <row r="30" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
-        <v>28</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M30" s="28" t="s">
+      <c r="N30" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O30" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30" s="15"/>
+    </row>
+    <row r="31" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>23</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N30" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="O30" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="48"/>
-    </row>
-    <row r="31" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="N31" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O31" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P31" s="15"/>
+    </row>
+    <row r="32" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>23</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M31" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="O31" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="48"/>
-    </row>
-    <row r="32" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
-        <v>30</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M32" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="N32" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="O32" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="48"/>
+      <c r="N32" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" s="15"/>
     </row>
     <row r="33" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
-        <v>31</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="26"/>
+      <c r="F33" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="17"/>
       <c r="H33" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="O33" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="48"/>
+      <c r="N33" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P33" s="15"/>
     </row>
     <row r="34" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
-        <v>32</v>
-      </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="E34" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="26"/>
+      <c r="F34" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="17"/>
       <c r="H34" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N34" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="O34" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="48"/>
+      <c r="N34" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P34" s="15"/>
     </row>
     <row r="35" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
-        <v>33</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="26"/>
+      <c r="F35" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="17"/>
       <c r="H35" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="O35" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="48"/>
+      <c r="N35" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P35" s="15"/>
     </row>
     <row r="36" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
-        <v>34</v>
-      </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="26"/>
+      <c r="F36" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="17"/>
       <c r="H36" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M36" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N36" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="O36" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="48"/>
+      <c r="N36" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P36" s="15"/>
     </row>
     <row r="37" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
-        <v>35</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="26"/>
+      <c r="F37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="17"/>
       <c r="H37" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M37" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N37" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="O37" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="48"/>
+      <c r="N37" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P37" s="15"/>
     </row>
     <row r="38" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
-        <v>36</v>
-      </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L38" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M38" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="N38" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="O38" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="P38" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q38" s="48"/>
+        <v>24</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="61"/>
     </row>
     <row r="39" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
-        <v>37</v>
-      </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>170</v>
+        <v>25</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>25</v>
@@ -4810,7 +4787,7 @@
       </c>
       <c r="G39" s="26"/>
       <c r="H39" s="49" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>28</v>
@@ -4828,24 +4805,23 @@
         <v>29</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O39" s="29" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="P39" s="24"/>
-      <c r="Q39" s="48"/>
     </row>
     <row r="40" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B40" s="44"/>
       <c r="C40" s="45" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>25</v>
@@ -4855,7 +4831,7 @@
       </c>
       <c r="G40" s="26"/>
       <c r="H40" s="49" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>28</v>
@@ -4873,806 +4849,876 @@
         <v>29</v>
       </c>
       <c r="N40" s="28" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O40" s="29" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="P40" s="24"/>
-      <c r="Q40" s="48"/>
     </row>
     <row r="41" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
-        <v>39</v>
-      </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E41" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="17"/>
+      <c r="F41" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="26"/>
       <c r="H41" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M41" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="P41" s="15"/>
+        <v>132</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" s="24"/>
     </row>
     <row r="42" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
-        <v>40</v>
-      </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="17"/>
+        <v>28</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="26"/>
       <c r="H42" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L42" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M42" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O42" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="P42" s="15"/>
+        <v>136</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="O42" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="48"/>
     </row>
     <row r="43" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
-        <v>41</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="26"/>
       <c r="H43" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M43" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="P43" s="15"/>
+        <v>140</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="48"/>
     </row>
     <row r="44" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
-        <v>42</v>
-      </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="17"/>
+      <c r="F44" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="26"/>
       <c r="H44" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M44" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N44" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O44" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="P44" s="15"/>
+        <v>144</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="O44" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="48"/>
     </row>
     <row r="45" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
+        <v>31</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="26"/>
+      <c r="H45" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M45" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="N45" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="O45" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="P45" s="15"/>
+      <c r="O45" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="48"/>
     </row>
     <row r="46" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
+        <v>32</v>
+      </c>
+      <c r="B46" s="44"/>
+      <c r="C46" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="26"/>
+      <c r="H46" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="O46" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="48"/>
+    </row>
+    <row r="47" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>33</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="26"/>
+      <c r="H47" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="48"/>
+    </row>
+    <row r="48" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>34</v>
+      </c>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="26"/>
+      <c r="H48" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="48"/>
+    </row>
+    <row r="49" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>35</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="26"/>
+      <c r="H49" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="48"/>
+    </row>
+    <row r="50" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>36</v>
+      </c>
+      <c r="B50" s="44"/>
+      <c r="C50" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="26"/>
+      <c r="H50" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O50" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="P50" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q50" s="48"/>
+    </row>
+    <row r="51" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>37</v>
+      </c>
+      <c r="B51" s="44"/>
+      <c r="C51" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="26"/>
+      <c r="H51" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="48"/>
+    </row>
+    <row r="52" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>38</v>
+      </c>
+      <c r="B52" s="44"/>
+      <c r="C52" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="26"/>
+      <c r="H52" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="48"/>
+    </row>
+    <row r="53" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>39</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O53" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P53" s="15"/>
+    </row>
+    <row r="54" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>40</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="17"/>
+      <c r="H54" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O54" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P54" s="15"/>
+    </row>
+    <row r="55" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>41</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="17"/>
+      <c r="H55" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M55" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O55" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P55" s="15"/>
+    </row>
+    <row r="56" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>42</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="17"/>
+      <c r="H56" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O56" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P56" s="15"/>
+    </row>
+    <row r="57" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
+        <v>43</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="17"/>
+      <c r="H57" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M57" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="N57" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="O57" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P57" s="15"/>
+    </row>
+    <row r="58" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
         <v>44</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="41" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K58" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M58" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O58" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P58" s="15"/>
+    </row>
+    <row r="59" spans="1:17" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <v>45</v>
+      </c>
+      <c r="B59" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="64"/>
+    </row>
+    <row r="60" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>46</v>
+      </c>
+      <c r="B60" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E46" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="49" t="s">
+      <c r="C60" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="I46" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M46" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N46" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="O46" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="P46" s="15"/>
-    </row>
-    <row r="47" spans="1:17" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
-        <v>45</v>
-      </c>
-      <c r="B47" s="61" t="s">
+      <c r="E60" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="63"/>
-    </row>
-    <row r="48" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
-        <v>46</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="51">
+      <c r="F60" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="26"/>
+      <c r="H60" s="51">
         <v>40001</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48" s="28">
-        <v>0</v>
-      </c>
-      <c r="K48" s="28">
-        <v>60</v>
-      </c>
-      <c r="L48" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M48" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N48" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O48" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="P48" s="24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
-        <v>47</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="51">
-        <v>40002</v>
-      </c>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18">
-        <v>2016</v>
-      </c>
-      <c r="K49" s="18">
-        <v>2116</v>
-      </c>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="P49" s="15"/>
-    </row>
-    <row r="50" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
-        <v>48</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="51">
-        <v>40003</v>
-      </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18">
-        <v>1</v>
-      </c>
-      <c r="K50" s="18">
-        <v>12</v>
-      </c>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="P50" s="15"/>
-    </row>
-    <row r="51" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
-        <v>49</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="51">
-        <v>40004</v>
-      </c>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18">
-        <v>1</v>
-      </c>
-      <c r="K51" s="18">
-        <v>31</v>
-      </c>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="P51" s="15"/>
-    </row>
-    <row r="52" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
-        <v>50</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="51">
-        <v>40005</v>
-      </c>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18">
-        <v>0</v>
-      </c>
-      <c r="K52" s="18">
-        <v>24</v>
-      </c>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="P52" s="15"/>
-    </row>
-    <row r="53" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
-        <v>51</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="51">
-        <v>40006</v>
-      </c>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18">
-        <v>0</v>
-      </c>
-      <c r="K53" s="18">
-        <v>60</v>
-      </c>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="P53" s="15"/>
-    </row>
-    <row r="54" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
-        <v>52</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="17"/>
-      <c r="H54" s="51">
-        <v>40007</v>
-      </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18">
-        <v>0</v>
-      </c>
-      <c r="K54" s="18">
-        <v>60</v>
-      </c>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="P54" s="15"/>
-    </row>
-    <row r="55" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
-        <v>53</v>
-      </c>
-      <c r="B55" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="63"/>
-    </row>
-    <row r="56" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
-        <v>54</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G56" s="26">
-        <v>7049</v>
-      </c>
-      <c r="H56" s="51">
-        <v>40010</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" s="28">
-        <v>0</v>
-      </c>
-      <c r="K56" s="28">
-        <v>3500</v>
-      </c>
-      <c r="L56" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="M56" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N56" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O56" s="29"/>
-      <c r="P56" s="24"/>
-    </row>
-    <row r="57" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
-        <v>55</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G57" s="26">
-        <v>7051</v>
-      </c>
-      <c r="H57" s="51">
-        <v>40012</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="28">
-        <v>-20</v>
-      </c>
-      <c r="K57" s="28">
-        <v>80</v>
-      </c>
-      <c r="L57" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="M57" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N57" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O57" s="29"/>
-      <c r="P57" s="24"/>
-    </row>
-    <row r="58" spans="1:16" s="21" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
-        <v>56</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G58" s="26">
-        <v>7017</v>
-      </c>
-      <c r="H58" s="51">
-        <v>40014</v>
-      </c>
-      <c r="I58" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58" s="28">
-        <v>0</v>
-      </c>
-      <c r="K58" s="28">
-        <v>100</v>
-      </c>
-      <c r="L58" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M58" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N58" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O58" s="29"/>
-      <c r="P58" s="24"/>
-    </row>
-    <row r="59" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
-        <v>57</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G59" s="26">
-        <v>7001</v>
-      </c>
-      <c r="H59" s="51">
-        <v>40016</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" s="28">
-        <v>0</v>
-      </c>
-      <c r="K59" s="28">
-        <v>100</v>
-      </c>
-      <c r="L59" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M59" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N59" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O59" s="29"/>
-      <c r="P59" s="24"/>
-    </row>
-    <row r="60" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
-        <v>58</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60" s="26">
-        <v>7003</v>
-      </c>
-      <c r="H60" s="51">
-        <v>40018</v>
       </c>
       <c r="I60" s="28" t="s">
         <v>28</v>
@@ -5681,10 +5727,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="28">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L60" s="28" t="s">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c r="M60" s="28" t="s">
         <v>28</v>
@@ -5692,331 +5738,275 @@
       <c r="N60" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="O60" s="29"/>
-      <c r="P60" s="24"/>
-    </row>
-    <row r="61" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O60" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="P60" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
-        <v>59</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G61" s="26">
-        <v>7005</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="17"/>
       <c r="H61" s="51">
-        <v>40020</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J61" s="28">
+        <v>40002</v>
+      </c>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18">
+        <v>2016</v>
+      </c>
+      <c r="K61" s="18">
+        <v>2116</v>
+      </c>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="P61" s="15"/>
+    </row>
+    <row r="62" spans="1:17" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>48</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="17"/>
+      <c r="H62" s="51">
+        <v>40003</v>
+      </c>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18">
+        <v>1</v>
+      </c>
+      <c r="K62" s="18">
+        <v>12</v>
+      </c>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="P62" s="15"/>
+    </row>
+    <row r="63" spans="1:17" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>49</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="17"/>
+      <c r="H63" s="51">
+        <v>40004</v>
+      </c>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18">
+        <v>1</v>
+      </c>
+      <c r="K63" s="18">
+        <v>31</v>
+      </c>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="P63" s="15"/>
+    </row>
+    <row r="64" spans="1:17" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>50</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="17"/>
+      <c r="H64" s="51">
+        <v>40005</v>
+      </c>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18">
         <v>0</v>
       </c>
-      <c r="K61" s="28">
-        <v>100</v>
-      </c>
-      <c r="L61" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M61" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N61" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O61" s="29"/>
-      <c r="P61" s="24"/>
-    </row>
-    <row r="62" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
+      <c r="K64" s="18">
+        <v>24</v>
+      </c>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="P64" s="15"/>
+    </row>
+    <row r="65" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>51</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="17"/>
+      <c r="H65" s="51">
+        <v>40006</v>
+      </c>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18">
+        <v>0</v>
+      </c>
+      <c r="K65" s="18">
         <v>60</v>
       </c>
-      <c r="B62" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" s="26">
-        <v>7007</v>
-      </c>
-      <c r="H62" s="51">
-        <v>40022</v>
-      </c>
-      <c r="I62" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" s="28">
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="P65" s="15"/>
+    </row>
+    <row r="66" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>52</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="17"/>
+      <c r="H66" s="51">
+        <v>40007</v>
+      </c>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18">
         <v>0</v>
       </c>
-      <c r="K62" s="28">
-        <v>100</v>
-      </c>
-      <c r="L62" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M62" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N62" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O62" s="29"/>
-      <c r="P62" s="24"/>
-    </row>
-    <row r="63" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
-        <v>61</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G63" s="26">
-        <v>7009</v>
-      </c>
-      <c r="H63" s="51">
-        <v>40024</v>
-      </c>
-      <c r="I63" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J63" s="28">
-        <v>0</v>
-      </c>
-      <c r="K63" s="28">
-        <v>100</v>
-      </c>
-      <c r="L63" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M63" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N63" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O63" s="29"/>
-      <c r="P63" s="24"/>
-    </row>
-    <row r="64" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
-        <v>62</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G64" s="26">
-        <v>7011</v>
-      </c>
-      <c r="H64" s="51">
-        <v>40026</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J64" s="28">
-        <v>0</v>
-      </c>
-      <c r="K64" s="28">
-        <v>100</v>
-      </c>
-      <c r="L64" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M64" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N64" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O64" s="29"/>
-      <c r="P64" s="24"/>
-    </row>
-    <row r="65" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
-        <v>63</v>
-      </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G65" s="26">
-        <v>7013</v>
-      </c>
-      <c r="H65" s="33">
-        <v>40028</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J65" s="28">
-        <v>0</v>
-      </c>
-      <c r="K65" s="28">
-        <v>100</v>
-      </c>
-      <c r="L65" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M65" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N65" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O65" s="29"/>
-      <c r="P65" s="24"/>
-    </row>
-    <row r="66" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
-        <v>64</v>
-      </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G66" s="26">
-        <v>7015</v>
-      </c>
-      <c r="H66" s="33">
-        <v>40030</v>
-      </c>
-      <c r="I66" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J66" s="28">
-        <v>0</v>
-      </c>
-      <c r="K66" s="28">
-        <v>100</v>
-      </c>
-      <c r="L66" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M66" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N66" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O66" s="29"/>
-      <c r="P66" s="50"/>
-    </row>
-    <row r="67" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K66" s="18">
+        <v>60</v>
+      </c>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="P66" s="15"/>
+    </row>
+    <row r="67" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
-        <v>65</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G67" s="26">
-        <v>7019</v>
-      </c>
-      <c r="H67" s="51">
-        <v>40032</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J67" s="28">
-        <v>0</v>
-      </c>
-      <c r="K67" s="28">
-        <v>100</v>
-      </c>
-      <c r="L67" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="M67" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N67" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O67" s="29"/>
-      <c r="P67" s="50"/>
+        <v>53</v>
+      </c>
+      <c r="B67" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="63"/>
+      <c r="O67" s="63"/>
+      <c r="P67" s="64"/>
     </row>
     <row r="68" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
-        <v>66</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>379</v>
+        <v>54</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>366</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E68" s="26" t="s">
         <v>57</v>
@@ -6025,10 +6015,10 @@
         <v>33</v>
       </c>
       <c r="G68" s="26">
-        <v>7021</v>
+        <v>7049</v>
       </c>
       <c r="H68" s="51">
-        <v>40034</v>
+        <v>40010</v>
       </c>
       <c r="I68" s="28" t="s">
         <v>28</v>
@@ -6037,10 +6027,10 @@
         <v>0</v>
       </c>
       <c r="K68" s="28">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="L68" s="28" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="M68" s="28" t="s">
         <v>28</v>
@@ -6053,16 +6043,16 @@
     </row>
     <row r="69" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
-        <v>67</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>380</v>
+        <v>55</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>367</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E69" s="26" t="s">
         <v>57</v>
@@ -6071,22 +6061,22 @@
         <v>33</v>
       </c>
       <c r="G69" s="26">
-        <v>7023</v>
+        <v>7051</v>
       </c>
       <c r="H69" s="51">
-        <v>40036</v>
+        <v>40012</v>
       </c>
       <c r="I69" s="28" t="s">
         <v>28</v>
       </c>
       <c r="J69" s="28">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="K69" s="28">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L69" s="28" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="M69" s="28" t="s">
         <v>28</v>
@@ -6097,18 +6087,18 @@
       <c r="O69" s="29"/>
       <c r="P69" s="24"/>
     </row>
-    <row r="70" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="21" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>229</v>
+        <v>368</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>216</v>
       </c>
       <c r="E70" s="26" t="s">
         <v>57</v>
@@ -6117,10 +6107,10 @@
         <v>33</v>
       </c>
       <c r="G70" s="26">
-        <v>7025</v>
+        <v>7017</v>
       </c>
       <c r="H70" s="51">
-        <v>40038</v>
+        <v>40014</v>
       </c>
       <c r="I70" s="28" t="s">
         <v>28</v>
@@ -6132,7 +6122,7 @@
         <v>100</v>
       </c>
       <c r="L70" s="28" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="M70" s="28" t="s">
         <v>28</v>
@@ -6145,16 +6135,16 @@
     </row>
     <row r="71" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E71" s="26" t="s">
         <v>57</v>
@@ -6163,10 +6153,10 @@
         <v>33</v>
       </c>
       <c r="G71" s="26">
-        <v>7027</v>
+        <v>7001</v>
       </c>
       <c r="H71" s="51">
-        <v>40040</v>
+        <v>40016</v>
       </c>
       <c r="I71" s="28" t="s">
         <v>28</v>
@@ -6178,7 +6168,7 @@
         <v>100</v>
       </c>
       <c r="L71" s="28" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M71" s="28" t="s">
         <v>28</v>
@@ -6191,16 +6181,16 @@
     </row>
     <row r="72" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E72" s="26" t="s">
         <v>57</v>
@@ -6209,10 +6199,10 @@
         <v>33</v>
       </c>
       <c r="G72" s="26">
-        <v>7029</v>
+        <v>7003</v>
       </c>
       <c r="H72" s="51">
-        <v>40042</v>
+        <v>40018</v>
       </c>
       <c r="I72" s="28" t="s">
         <v>28</v>
@@ -6224,7 +6214,7 @@
         <v>100</v>
       </c>
       <c r="L72" s="28" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M72" s="28" t="s">
         <v>28</v>
@@ -6237,16 +6227,16 @@
     </row>
     <row r="73" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>57</v>
@@ -6255,10 +6245,10 @@
         <v>33</v>
       </c>
       <c r="G73" s="26">
-        <v>7031</v>
+        <v>7005</v>
       </c>
       <c r="H73" s="51">
-        <v>40044</v>
+        <v>40020</v>
       </c>
       <c r="I73" s="28" t="s">
         <v>28</v>
@@ -6270,7 +6260,7 @@
         <v>100</v>
       </c>
       <c r="L73" s="28" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M73" s="28" t="s">
         <v>28</v>
@@ -6283,16 +6273,16 @@
     </row>
     <row r="74" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>358</v>
+        <v>226</v>
       </c>
       <c r="E74" s="26" t="s">
         <v>57</v>
@@ -6301,10 +6291,10 @@
         <v>33</v>
       </c>
       <c r="G74" s="26">
-        <v>7033</v>
+        <v>7007</v>
       </c>
       <c r="H74" s="51">
-        <v>40046</v>
+        <v>40022</v>
       </c>
       <c r="I74" s="28" t="s">
         <v>28</v>
@@ -6316,7 +6306,7 @@
         <v>100</v>
       </c>
       <c r="L74" s="28" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M74" s="28" t="s">
         <v>28</v>
@@ -6329,16 +6319,16 @@
     </row>
     <row r="75" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E75" s="26" t="s">
         <v>57</v>
@@ -6347,10 +6337,10 @@
         <v>33</v>
       </c>
       <c r="G75" s="26">
-        <v>7035</v>
+        <v>7009</v>
       </c>
       <c r="H75" s="51">
-        <v>40048</v>
+        <v>40024</v>
       </c>
       <c r="I75" s="28" t="s">
         <v>28</v>
@@ -6362,7 +6352,7 @@
         <v>100</v>
       </c>
       <c r="L75" s="28" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M75" s="28" t="s">
         <v>28</v>
@@ -6375,16 +6365,16 @@
     </row>
     <row r="76" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>247</v>
+        <v>354</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>57</v>
@@ -6393,10 +6383,10 @@
         <v>33</v>
       </c>
       <c r="G76" s="26">
-        <v>7037</v>
+        <v>7011</v>
       </c>
       <c r="H76" s="51">
-        <v>40050</v>
+        <v>40026</v>
       </c>
       <c r="I76" s="28" t="s">
         <v>28</v>
@@ -6408,7 +6398,7 @@
         <v>100</v>
       </c>
       <c r="L76" s="28" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M76" s="28" t="s">
         <v>28</v>
@@ -6421,17 +6411,11 @@
     </row>
     <row r="77" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
-        <v>75</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>249</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="26" t="s">
         <v>57</v>
       </c>
@@ -6439,10 +6423,10 @@
         <v>33</v>
       </c>
       <c r="G77" s="26">
-        <v>7039</v>
-      </c>
-      <c r="H77" s="51">
-        <v>40052</v>
+        <v>7013</v>
+      </c>
+      <c r="H77" s="33">
+        <v>40028</v>
       </c>
       <c r="I77" s="28" t="s">
         <v>28</v>
@@ -6454,7 +6438,7 @@
         <v>100</v>
       </c>
       <c r="L77" s="28" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M77" s="28" t="s">
         <v>28</v>
@@ -6467,17 +6451,11 @@
     </row>
     <row r="78" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
-        <v>76</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>251</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="26" t="s">
         <v>57</v>
       </c>
@@ -6485,10 +6463,10 @@
         <v>33</v>
       </c>
       <c r="G78" s="26">
-        <v>7041</v>
-      </c>
-      <c r="H78" s="51">
-        <v>40054</v>
+        <v>7015</v>
+      </c>
+      <c r="H78" s="33">
+        <v>40030</v>
       </c>
       <c r="I78" s="28" t="s">
         <v>28</v>
@@ -6500,7 +6478,7 @@
         <v>100</v>
       </c>
       <c r="L78" s="28" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M78" s="28" t="s">
         <v>28</v>
@@ -6509,20 +6487,20 @@
         <v>28</v>
       </c>
       <c r="O78" s="29"/>
-      <c r="P78" s="24"/>
+      <c r="P78" s="50"/>
     </row>
     <row r="79" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>390</v>
+        <v>232</v>
+      </c>
+      <c r="C79" s="65" t="s">
+        <v>375</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="E79" s="26" t="s">
         <v>57</v>
@@ -6531,10 +6509,10 @@
         <v>33</v>
       </c>
       <c r="G79" s="26">
-        <v>7043</v>
+        <v>7019</v>
       </c>
       <c r="H79" s="51">
-        <v>40056</v>
+        <v>40032</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>28</v>
@@ -6546,7 +6524,7 @@
         <v>100</v>
       </c>
       <c r="L79" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M79" s="28" t="s">
         <v>28</v>
@@ -6555,20 +6533,20 @@
         <v>28</v>
       </c>
       <c r="O79" s="29"/>
-      <c r="P79" s="24"/>
+      <c r="P79" s="50"/>
     </row>
     <row r="80" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>391</v>
+        <v>234</v>
+      </c>
+      <c r="C80" s="65" t="s">
+        <v>376</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="E80" s="26" t="s">
         <v>57</v>
@@ -6577,10 +6555,10 @@
         <v>33</v>
       </c>
       <c r="G80" s="26">
-        <v>7045</v>
+        <v>7021</v>
       </c>
       <c r="H80" s="51">
-        <v>40058</v>
+        <v>40034</v>
       </c>
       <c r="I80" s="28" t="s">
         <v>28</v>
@@ -6592,7 +6570,7 @@
         <v>100</v>
       </c>
       <c r="L80" s="28" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="M80" s="28" t="s">
         <v>28</v>
@@ -6605,11 +6583,17 @@
     </row>
     <row r="81" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
-        <v>79</v>
-      </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>224</v>
+      </c>
       <c r="E81" s="26" t="s">
         <v>57</v>
       </c>
@@ -6617,10 +6601,10 @@
         <v>33</v>
       </c>
       <c r="G81" s="26">
-        <v>7047</v>
-      </c>
-      <c r="H81" s="33">
-        <v>40060</v>
+        <v>7023</v>
+      </c>
+      <c r="H81" s="51">
+        <v>40036</v>
       </c>
       <c r="I81" s="28" t="s">
         <v>28</v>
@@ -6629,10 +6613,10 @@
         <v>0</v>
       </c>
       <c r="K81" s="28">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L81" s="28" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="M81" s="28" t="s">
         <v>28</v>
@@ -6641,20 +6625,20 @@
         <v>28</v>
       </c>
       <c r="O81" s="29"/>
-      <c r="P81" s="50"/>
+      <c r="P81" s="24"/>
     </row>
     <row r="82" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>392</v>
+        <v>236</v>
+      </c>
+      <c r="C82" s="65" t="s">
+        <v>378</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="E82" s="26" t="s">
         <v>57</v>
@@ -6663,10 +6647,10 @@
         <v>33</v>
       </c>
       <c r="G82" s="26">
-        <v>7053</v>
+        <v>7025</v>
       </c>
       <c r="H82" s="51">
-        <v>40062</v>
+        <v>40038</v>
       </c>
       <c r="I82" s="28" t="s">
         <v>28</v>
@@ -6678,7 +6662,7 @@
         <v>100</v>
       </c>
       <c r="L82" s="28" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="M82" s="28" t="s">
         <v>28</v>
@@ -6686,465 +6670,521 @@
       <c r="N82" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="O82" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="P82" s="52"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="24"/>
     </row>
     <row r="83" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
-        <v>81</v>
-      </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G83" s="22"/>
+        <v>69</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G83" s="26">
+        <v>7027</v>
+      </c>
       <c r="H83" s="51">
-        <v>40064</v>
-      </c>
-      <c r="I83" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J83" s="18">
+        <v>40040</v>
+      </c>
+      <c r="I83" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J83" s="28">
         <v>0</v>
       </c>
-      <c r="K83" s="18">
-        <v>3</v>
-      </c>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N83" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O83" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="P83" s="15"/>
+      <c r="K83" s="28">
+        <v>100</v>
+      </c>
+      <c r="L83" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M83" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N83" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O83" s="29"/>
+      <c r="P83" s="24"/>
     </row>
     <row r="84" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
-        <v>82</v>
-      </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G84" s="22"/>
+        <v>70</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" s="26">
+        <v>7029</v>
+      </c>
       <c r="H84" s="51">
-        <v>40065</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J84" s="18">
+        <v>40042</v>
+      </c>
+      <c r="I84" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J84" s="28">
         <v>0</v>
       </c>
-      <c r="K84" s="18">
-        <v>2</v>
-      </c>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N84" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O84" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="P84" s="15"/>
+      <c r="K84" s="28">
+        <v>100</v>
+      </c>
+      <c r="L84" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M84" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N84" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O84" s="29"/>
+      <c r="P84" s="24"/>
     </row>
     <row r="85" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
-        <v>83</v>
-      </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="E85" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C85" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F85" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G85" s="22"/>
+      <c r="F85" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G85" s="26">
+        <v>7031</v>
+      </c>
       <c r="H85" s="51">
-        <v>40066</v>
-      </c>
-      <c r="I85" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J85" s="18">
+        <v>40044</v>
+      </c>
+      <c r="I85" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J85" s="28">
         <v>0</v>
       </c>
-      <c r="K85" s="42">
-        <v>10000</v>
-      </c>
-      <c r="L85" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="M85" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N85" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O85" s="19"/>
-      <c r="P85" s="15"/>
+      <c r="K85" s="28">
+        <v>100</v>
+      </c>
+      <c r="L85" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M85" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N85" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O85" s="29"/>
+      <c r="P85" s="24"/>
     </row>
     <row r="86" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
-        <v>84</v>
-      </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="E86" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C86" s="65" t="s">
+        <v>382</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="E86" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G86" s="22"/>
+      <c r="F86" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" s="26">
+        <v>7033</v>
+      </c>
       <c r="H86" s="51">
-        <v>40068</v>
-      </c>
-      <c r="I86" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J86" s="18">
+        <v>40046</v>
+      </c>
+      <c r="I86" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J86" s="28">
         <v>0</v>
       </c>
-      <c r="K86" s="42">
-        <v>10000</v>
-      </c>
-      <c r="L86" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="M86" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N86" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O86" s="19"/>
-      <c r="P86" s="15"/>
+      <c r="K86" s="28">
+        <v>100</v>
+      </c>
+      <c r="L86" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M86" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N86" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O86" s="29"/>
+      <c r="P86" s="24"/>
     </row>
     <row r="87" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
-        <v>85</v>
-      </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="E87" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C87" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="E87" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F87" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G87" s="22"/>
+      <c r="F87" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" s="26">
+        <v>7035</v>
+      </c>
       <c r="H87" s="51">
-        <v>40070</v>
-      </c>
-      <c r="I87" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J87" s="18">
+        <v>40048</v>
+      </c>
+      <c r="I87" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J87" s="28">
         <v>0</v>
       </c>
-      <c r="K87" s="42">
-        <v>10000</v>
-      </c>
-      <c r="L87" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="M87" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N87" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O87" s="19"/>
-      <c r="P87" s="15"/>
+      <c r="K87" s="28">
+        <v>100</v>
+      </c>
+      <c r="L87" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M87" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N87" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O87" s="29"/>
+      <c r="P87" s="24"/>
     </row>
     <row r="88" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
-        <v>86</v>
-      </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="E88" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E88" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F88" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G88" s="22"/>
+      <c r="F88" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" s="26">
+        <v>7037</v>
+      </c>
       <c r="H88" s="51">
-        <v>40072</v>
-      </c>
-      <c r="I88" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J88" s="18">
+        <v>40050</v>
+      </c>
+      <c r="I88" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J88" s="28">
         <v>0</v>
       </c>
-      <c r="K88" s="42">
-        <v>300</v>
-      </c>
-      <c r="L88" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="M88" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N88" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O88" s="19"/>
-      <c r="P88" s="15"/>
+      <c r="K88" s="28">
+        <v>100</v>
+      </c>
+      <c r="L88" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M88" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N88" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O88" s="29"/>
+      <c r="P88" s="24"/>
     </row>
     <row r="89" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
-        <v>87</v>
-      </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="E89" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C89" s="65" t="s">
+        <v>385</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E89" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F89" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G89" s="22"/>
+      <c r="F89" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" s="26">
+        <v>7039</v>
+      </c>
       <c r="H89" s="51">
-        <v>40074</v>
-      </c>
-      <c r="I89" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J89" s="18">
+        <v>40052</v>
+      </c>
+      <c r="I89" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J89" s="28">
         <v>0</v>
       </c>
-      <c r="K89" s="42">
-        <v>300</v>
-      </c>
-      <c r="L89" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="M89" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N89" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O89" s="19"/>
-      <c r="P89" s="15"/>
+      <c r="K89" s="28">
+        <v>100</v>
+      </c>
+      <c r="L89" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M89" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N89" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O89" s="29"/>
+      <c r="P89" s="24"/>
     </row>
     <row r="90" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
-        <v>88</v>
-      </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="E90" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E90" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F90" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G90" s="22"/>
+      <c r="F90" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" s="26">
+        <v>7041</v>
+      </c>
       <c r="H90" s="51">
-        <v>40076</v>
-      </c>
-      <c r="I90" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J90" s="18">
+        <v>40054</v>
+      </c>
+      <c r="I90" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J90" s="28">
         <v>0</v>
       </c>
-      <c r="K90" s="42">
-        <v>300</v>
-      </c>
-      <c r="L90" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="M90" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N90" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O90" s="19"/>
-      <c r="P90" s="15"/>
+      <c r="K90" s="28">
+        <v>100</v>
+      </c>
+      <c r="L90" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M90" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N90" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O90" s="29"/>
+      <c r="P90" s="24"/>
     </row>
     <row r="91" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
-        <v>88</v>
-      </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="E91" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E91" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F91" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G91" s="22"/>
+      <c r="F91" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" s="26">
+        <v>7043</v>
+      </c>
       <c r="H91" s="51">
-        <v>40078</v>
-      </c>
-      <c r="I91" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J91" s="18">
+        <v>40056</v>
+      </c>
+      <c r="I91" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J91" s="28">
         <v>0</v>
       </c>
-      <c r="K91" s="42">
-        <v>300</v>
-      </c>
-      <c r="L91" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="M91" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N91" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O91" s="19"/>
-      <c r="P91" s="15"/>
+      <c r="K91" s="28">
+        <v>100</v>
+      </c>
+      <c r="L91" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M91" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N91" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O91" s="29"/>
+      <c r="P91" s="24"/>
     </row>
     <row r="92" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
-        <v>88</v>
-      </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="E92" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C92" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E92" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F92" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G92" s="22"/>
+      <c r="F92" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G92" s="26">
+        <v>7045</v>
+      </c>
       <c r="H92" s="51">
-        <v>40080</v>
-      </c>
-      <c r="I92" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J92" s="18">
+        <v>40058</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J92" s="28">
         <v>0</v>
       </c>
-      <c r="K92" s="42">
-        <v>300</v>
-      </c>
-      <c r="L92" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="M92" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N92" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O92" s="19"/>
-      <c r="P92" s="15"/>
-    </row>
-    <row r="93" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K92" s="28">
+        <v>100</v>
+      </c>
+      <c r="L92" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M92" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N92" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O92" s="29"/>
+      <c r="P92" s="24"/>
+    </row>
+    <row r="93" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
-        <v>89</v>
-      </c>
-      <c r="B93" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="C93" s="62"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="62"/>
-      <c r="G93" s="62"/>
-      <c r="H93" s="62"/>
-      <c r="I93" s="62"/>
-      <c r="J93" s="62"/>
-      <c r="K93" s="62"/>
-      <c r="L93" s="62"/>
-      <c r="M93" s="62"/>
-      <c r="N93" s="62"/>
-      <c r="O93" s="62"/>
-      <c r="P93" s="63"/>
+        <v>79</v>
+      </c>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" s="26">
+        <v>7047</v>
+      </c>
+      <c r="H93" s="33">
+        <v>40060</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J93" s="28">
+        <v>0</v>
+      </c>
+      <c r="K93" s="28">
+        <v>150</v>
+      </c>
+      <c r="L93" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M93" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N93" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O93" s="29"/>
+      <c r="P93" s="50"/>
     </row>
     <row r="94" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
-        <v>90</v>
-      </c>
-      <c r="B94" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="C94" s="31" t="s">
-        <v>404</v>
+        <v>80</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>389</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E94" s="26" t="s">
         <v>57</v>
@@ -7153,10 +7193,10 @@
         <v>33</v>
       </c>
       <c r="G94" s="26">
-        <v>7149</v>
+        <v>7053</v>
       </c>
       <c r="H94" s="51">
-        <v>40110</v>
+        <v>40062</v>
       </c>
       <c r="I94" s="28" t="s">
         <v>28</v>
@@ -7165,10 +7205,10 @@
         <v>0</v>
       </c>
       <c r="K94" s="28">
-        <v>3500</v>
+        <v>100</v>
       </c>
       <c r="L94" s="28" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M94" s="28" t="s">
         <v>28</v>
@@ -7176,527 +7216,465 @@
       <c r="N94" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="O94" s="29"/>
-      <c r="P94" s="24"/>
+      <c r="O94" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="P94" s="52"/>
     </row>
     <row r="95" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
-        <v>91</v>
-      </c>
-      <c r="B95" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="C95" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F95" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G95" s="26">
-        <v>7151</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95" s="22"/>
       <c r="H95" s="51">
-        <v>40112</v>
-      </c>
-      <c r="I95" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J95" s="28">
-        <v>-20</v>
-      </c>
-      <c r="K95" s="28">
-        <v>80</v>
-      </c>
-      <c r="L95" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="M95" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N95" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O95" s="29"/>
-      <c r="P95" s="24"/>
-    </row>
-    <row r="96" spans="1:16" s="21" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40064</v>
+      </c>
+      <c r="I95" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J95" s="18">
+        <v>0</v>
+      </c>
+      <c r="K95" s="18">
+        <v>3</v>
+      </c>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N95" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O95" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="P95" s="15"/>
+    </row>
+    <row r="96" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
-        <v>92</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="C96" s="53" t="s">
-        <v>393</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F96" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G96" s="26">
-        <v>7117</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G96" s="22"/>
       <c r="H96" s="51">
-        <v>40114</v>
-      </c>
-      <c r="I96" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J96" s="28">
+        <v>40065</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J96" s="18">
         <v>0</v>
       </c>
-      <c r="K96" s="28">
-        <v>100</v>
-      </c>
-      <c r="L96" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M96" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N96" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O96" s="29"/>
-      <c r="P96" s="24"/>
+      <c r="K96" s="18">
+        <v>2</v>
+      </c>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N96" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O96" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="P96" s="15"/>
     </row>
     <row r="97" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
-        <v>93</v>
-      </c>
-      <c r="B97" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="E97" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E97" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F97" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G97" s="26">
-        <v>7101</v>
-      </c>
+      <c r="F97" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G97" s="22"/>
       <c r="H97" s="51">
-        <v>40116</v>
-      </c>
-      <c r="I97" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J97" s="28">
+        <v>40066</v>
+      </c>
+      <c r="I97" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J97" s="18">
         <v>0</v>
       </c>
-      <c r="K97" s="28">
-        <v>100</v>
-      </c>
-      <c r="L97" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M97" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N97" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O97" s="29"/>
-      <c r="P97" s="24"/>
+      <c r="K97" s="42">
+        <v>10000</v>
+      </c>
+      <c r="L97" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="M97" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N97" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O97" s="19"/>
+      <c r="P97" s="15"/>
     </row>
     <row r="98" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
-        <v>94</v>
-      </c>
-      <c r="B98" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="E98" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="E98" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F98" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G98" s="26">
-        <v>7103</v>
-      </c>
+      <c r="F98" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G98" s="22"/>
       <c r="H98" s="51">
-        <v>40118</v>
-      </c>
-      <c r="I98" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J98" s="28">
+        <v>40068</v>
+      </c>
+      <c r="I98" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J98" s="18">
         <v>0</v>
       </c>
-      <c r="K98" s="28">
-        <v>100</v>
-      </c>
-      <c r="L98" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M98" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N98" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O98" s="29"/>
-      <c r="P98" s="24"/>
+      <c r="K98" s="42">
+        <v>10000</v>
+      </c>
+      <c r="L98" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="M98" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N98" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O98" s="19"/>
+      <c r="P98" s="15"/>
     </row>
     <row r="99" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
-        <v>95</v>
-      </c>
-      <c r="B99" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="D99" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="E99" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E99" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F99" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G99" s="26">
-        <v>7105</v>
-      </c>
+      <c r="F99" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G99" s="22"/>
       <c r="H99" s="51">
-        <v>40120</v>
-      </c>
-      <c r="I99" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J99" s="28">
+        <v>40070</v>
+      </c>
+      <c r="I99" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J99" s="18">
         <v>0</v>
       </c>
-      <c r="K99" s="28">
-        <v>100</v>
-      </c>
-      <c r="L99" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M99" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N99" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O99" s="29"/>
-      <c r="P99" s="24"/>
+      <c r="K99" s="42">
+        <v>10000</v>
+      </c>
+      <c r="L99" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="M99" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N99" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O99" s="19"/>
+      <c r="P99" s="15"/>
     </row>
     <row r="100" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
-        <v>96</v>
-      </c>
-      <c r="B100" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="E100" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E100" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F100" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G100" s="26">
-        <v>7107</v>
-      </c>
+      <c r="F100" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G100" s="22"/>
       <c r="H100" s="51">
-        <v>40122</v>
-      </c>
-      <c r="I100" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J100" s="28">
+        <v>40072</v>
+      </c>
+      <c r="I100" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J100" s="18">
         <v>0</v>
       </c>
-      <c r="K100" s="28">
-        <v>100</v>
-      </c>
-      <c r="L100" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M100" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N100" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O100" s="29"/>
-      <c r="P100" s="24"/>
+      <c r="K100" s="42">
+        <v>300</v>
+      </c>
+      <c r="L100" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="M100" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N100" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O100" s="19"/>
+      <c r="P100" s="15"/>
     </row>
     <row r="101" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
-        <v>97</v>
-      </c>
-      <c r="B101" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="E101" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E101" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F101" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G101" s="26">
-        <v>7109</v>
-      </c>
+      <c r="F101" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G101" s="22"/>
       <c r="H101" s="51">
-        <v>40124</v>
-      </c>
-      <c r="I101" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J101" s="28">
+        <v>40074</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J101" s="18">
         <v>0</v>
       </c>
-      <c r="K101" s="28">
-        <v>100</v>
-      </c>
-      <c r="L101" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M101" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N101" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O101" s="29"/>
-      <c r="P101" s="24"/>
+      <c r="K101" s="42">
+        <v>300</v>
+      </c>
+      <c r="L101" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="M101" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N101" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O101" s="19"/>
+      <c r="P101" s="15"/>
     </row>
     <row r="102" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
-        <v>98</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="E102" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="E102" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F102" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G102" s="26">
-        <v>7111</v>
-      </c>
+      <c r="F102" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G102" s="22"/>
       <c r="H102" s="51">
-        <v>40126</v>
-      </c>
-      <c r="I102" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J102" s="28">
+        <v>40076</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J102" s="18">
         <v>0</v>
       </c>
-      <c r="K102" s="28">
-        <v>100</v>
-      </c>
-      <c r="L102" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M102" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N102" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O102" s="29"/>
-      <c r="P102" s="24"/>
+      <c r="K102" s="42">
+        <v>300</v>
+      </c>
+      <c r="L102" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="M102" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N102" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O102" s="19"/>
+      <c r="P102" s="15"/>
     </row>
     <row r="103" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
-        <v>99</v>
-      </c>
-      <c r="B103" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="E103" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="E103" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F103" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G103" s="26">
-        <v>7113</v>
-      </c>
+      <c r="F103" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G103" s="22"/>
       <c r="H103" s="51">
-        <v>40128</v>
-      </c>
-      <c r="I103" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J103" s="28">
+        <v>40078</v>
+      </c>
+      <c r="I103" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J103" s="18">
         <v>0</v>
       </c>
-      <c r="K103" s="28">
-        <v>100</v>
-      </c>
-      <c r="L103" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M103" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N103" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O103" s="29"/>
-      <c r="P103" s="24"/>
+      <c r="K103" s="42">
+        <v>300</v>
+      </c>
+      <c r="L103" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="M103" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N103" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O103" s="19"/>
+      <c r="P103" s="15"/>
     </row>
     <row r="104" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
-        <v>100</v>
-      </c>
-      <c r="B104" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E104" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E104" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F104" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G104" s="26">
-        <v>7115</v>
-      </c>
+      <c r="F104" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G104" s="22"/>
       <c r="H104" s="51">
-        <v>40130</v>
-      </c>
-      <c r="I104" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J104" s="28">
+        <v>40080</v>
+      </c>
+      <c r="I104" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J104" s="18">
         <v>0</v>
       </c>
-      <c r="K104" s="28">
-        <v>100</v>
-      </c>
-      <c r="L104" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M104" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N104" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O104" s="29"/>
-      <c r="P104" s="24"/>
-    </row>
-    <row r="105" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K104" s="42">
+        <v>300</v>
+      </c>
+      <c r="L104" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="M104" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N104" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O104" s="19"/>
+      <c r="P104" s="15"/>
+    </row>
+    <row r="105" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
-        <v>108</v>
-      </c>
-      <c r="B105" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="C105" s="53" t="s">
-        <v>402</v>
-      </c>
-      <c r="D105" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F105" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G105" s="26">
-        <v>7133</v>
-      </c>
-      <c r="H105" s="51">
-        <v>40132</v>
-      </c>
-      <c r="I105" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J105" s="28">
-        <v>0</v>
-      </c>
-      <c r="K105" s="28">
-        <v>100</v>
-      </c>
-      <c r="L105" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="M105" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N105" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O105" s="29"/>
-      <c r="P105" s="24"/>
+        <v>89</v>
+      </c>
+      <c r="B105" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="C105" s="63"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="63"/>
+      <c r="K105" s="63"/>
+      <c r="L105" s="63"/>
+      <c r="M105" s="63"/>
+      <c r="N105" s="63"/>
+      <c r="O105" s="63"/>
+      <c r="P105" s="64"/>
     </row>
     <row r="106" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
-        <v>108</v>
-      </c>
-      <c r="B106" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>403</v>
+        <v>90</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C106" s="67" t="s">
+        <v>401</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="E106" s="26" t="s">
         <v>57</v>
@@ -7705,10 +7683,10 @@
         <v>33</v>
       </c>
       <c r="G106" s="26">
-        <v>7133</v>
+        <v>7149</v>
       </c>
       <c r="H106" s="51">
-        <v>40136</v>
+        <v>40110</v>
       </c>
       <c r="I106" s="28" t="s">
         <v>28</v>
@@ -7717,10 +7695,10 @@
         <v>0</v>
       </c>
       <c r="K106" s="28">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="L106" s="28" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="M106" s="28" t="s">
         <v>28</v>
@@ -7733,16 +7711,16 @@
     </row>
     <row r="107" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
-        <v>109</v>
-      </c>
-      <c r="B107" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>311</v>
+        <v>91</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C107" s="67" t="s">
+        <v>402</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>280</v>
       </c>
       <c r="E107" s="26" t="s">
         <v>57</v>
@@ -7751,22 +7729,22 @@
         <v>33</v>
       </c>
       <c r="G107" s="26">
-        <v>7135</v>
+        <v>7151</v>
       </c>
       <c r="H107" s="51">
-        <v>40138</v>
+        <v>40112</v>
       </c>
       <c r="I107" s="28" t="s">
         <v>28</v>
       </c>
       <c r="J107" s="28">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="K107" s="28">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L107" s="28" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="M107" s="28" t="s">
         <v>28</v>
@@ -7777,18 +7755,18 @@
       <c r="O107" s="29"/>
       <c r="P107" s="24"/>
     </row>
-    <row r="108" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" s="21" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>313</v>
+        <v>281</v>
+      </c>
+      <c r="C108" s="66" t="s">
+        <v>390</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>360</v>
       </c>
       <c r="E108" s="26" t="s">
         <v>57</v>
@@ -7797,10 +7775,10 @@
         <v>33</v>
       </c>
       <c r="G108" s="26">
-        <v>7137</v>
+        <v>7117</v>
       </c>
       <c r="H108" s="51">
-        <v>40140</v>
+        <v>40114</v>
       </c>
       <c r="I108" s="28" t="s">
         <v>28</v>
@@ -7812,7 +7790,7 @@
         <v>100</v>
       </c>
       <c r="L108" s="28" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="M108" s="28" t="s">
         <v>28</v>
@@ -7825,16 +7803,16 @@
     </row>
     <row r="109" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>315</v>
+        <v>282</v>
+      </c>
+      <c r="C109" s="65" t="s">
+        <v>391</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>283</v>
       </c>
       <c r="E109" s="26" t="s">
         <v>57</v>
@@ -7843,10 +7821,10 @@
         <v>33</v>
       </c>
       <c r="G109" s="26">
-        <v>7139</v>
+        <v>7101</v>
       </c>
       <c r="H109" s="51">
-        <v>40142</v>
+        <v>40116</v>
       </c>
       <c r="I109" s="28" t="s">
         <v>28</v>
@@ -7858,7 +7836,7 @@
         <v>100</v>
       </c>
       <c r="L109" s="28" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M109" s="28" t="s">
         <v>28</v>
@@ -7871,16 +7849,16 @@
     </row>
     <row r="110" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>317</v>
+        <v>284</v>
+      </c>
+      <c r="C110" s="65" t="s">
+        <v>392</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>285</v>
       </c>
       <c r="E110" s="26" t="s">
         <v>57</v>
@@ -7889,10 +7867,10 @@
         <v>33</v>
       </c>
       <c r="G110" s="26">
-        <v>7141</v>
+        <v>7103</v>
       </c>
       <c r="H110" s="51">
-        <v>40144</v>
+        <v>40118</v>
       </c>
       <c r="I110" s="28" t="s">
         <v>28</v>
@@ -7904,7 +7882,7 @@
         <v>100</v>
       </c>
       <c r="L110" s="28" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M110" s="28" t="s">
         <v>28</v>
@@ -7917,16 +7895,16 @@
     </row>
     <row r="111" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>319</v>
+        <v>286</v>
+      </c>
+      <c r="C111" s="65" t="s">
+        <v>393</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>287</v>
       </c>
       <c r="E111" s="26" t="s">
         <v>57</v>
@@ -7935,10 +7913,10 @@
         <v>33</v>
       </c>
       <c r="G111" s="26">
-        <v>7143</v>
+        <v>7105</v>
       </c>
       <c r="H111" s="51">
-        <v>40146</v>
+        <v>40120</v>
       </c>
       <c r="I111" s="28" t="s">
         <v>28</v>
@@ -7950,7 +7928,7 @@
         <v>100</v>
       </c>
       <c r="L111" s="28" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M111" s="28" t="s">
         <v>28</v>
@@ -7963,16 +7941,16 @@
     </row>
     <row r="112" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>321</v>
+        <v>288</v>
+      </c>
+      <c r="C112" s="65" t="s">
+        <v>394</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>289</v>
       </c>
       <c r="E112" s="26" t="s">
         <v>57</v>
@@ -7981,10 +7959,10 @@
         <v>33</v>
       </c>
       <c r="G112" s="26">
-        <v>7145</v>
+        <v>7107</v>
       </c>
       <c r="H112" s="51">
-        <v>40148</v>
+        <v>40122</v>
       </c>
       <c r="I112" s="28" t="s">
         <v>28</v>
@@ -7996,7 +7974,7 @@
         <v>100</v>
       </c>
       <c r="L112" s="28" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M112" s="28" t="s">
         <v>28</v>
@@ -8009,16 +7987,16 @@
     </row>
     <row r="113" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>323</v>
+        <v>290</v>
+      </c>
+      <c r="C113" s="65" t="s">
+        <v>395</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>291</v>
       </c>
       <c r="E113" s="26" t="s">
         <v>57</v>
@@ -8027,10 +8005,10 @@
         <v>33</v>
       </c>
       <c r="G113" s="26">
-        <v>7147</v>
+        <v>7109</v>
       </c>
       <c r="H113" s="51">
-        <v>40150</v>
+        <v>40124</v>
       </c>
       <c r="I113" s="28" t="s">
         <v>28</v>
@@ -8039,10 +8017,10 @@
         <v>0</v>
       </c>
       <c r="K113" s="28">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L113" s="28" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M113" s="28" t="s">
         <v>28</v>
@@ -8055,16 +8033,16 @@
     </row>
     <row r="114" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="D114" s="16" t="s">
-        <v>325</v>
+        <v>292</v>
+      </c>
+      <c r="C114" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="E114" s="26" t="s">
         <v>57</v>
@@ -8073,10 +8051,10 @@
         <v>33</v>
       </c>
       <c r="G114" s="26">
-        <v>7153</v>
+        <v>7111</v>
       </c>
       <c r="H114" s="51">
-        <v>40152</v>
+        <v>40126</v>
       </c>
       <c r="I114" s="28" t="s">
         <v>28</v>
@@ -8096,126 +8074,679 @@
       <c r="N114" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="O114" s="29" t="s">
-        <v>258</v>
-      </c>
+      <c r="O114" s="29"/>
       <c r="P114" s="24"/>
     </row>
     <row r="115" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
-        <v>88</v>
-      </c>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="E115" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C115" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="E115" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F115" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G115" s="22"/>
+      <c r="F115" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G115" s="26">
+        <v>7113</v>
+      </c>
       <c r="H115" s="51">
-        <v>40164</v>
-      </c>
-      <c r="I115" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J115" s="18">
+        <v>40128</v>
+      </c>
+      <c r="I115" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J115" s="28">
         <v>0</v>
       </c>
-      <c r="K115" s="42">
-        <v>300</v>
-      </c>
-      <c r="L115" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="M115" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N115" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O115" s="19"/>
-      <c r="P115" s="15"/>
+      <c r="K115" s="28">
+        <v>100</v>
+      </c>
+      <c r="L115" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M115" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N115" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O115" s="29"/>
+      <c r="P115" s="24"/>
     </row>
     <row r="116" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
+        <v>100</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C116" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F116" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" s="26">
+        <v>7115</v>
+      </c>
+      <c r="H116" s="51">
+        <v>40130</v>
+      </c>
+      <c r="I116" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J116" s="28">
+        <v>0</v>
+      </c>
+      <c r="K116" s="28">
+        <v>100</v>
+      </c>
+      <c r="L116" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M116" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N116" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O116" s="29"/>
+      <c r="P116" s="24"/>
+    </row>
+    <row r="117" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="14">
+        <v>108</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C117" s="66" t="s">
+        <v>399</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F117" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G117" s="26">
+        <v>7133</v>
+      </c>
+      <c r="H117" s="51">
+        <v>40132</v>
+      </c>
+      <c r="I117" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J117" s="28">
+        <v>0</v>
+      </c>
+      <c r="K117" s="28">
+        <v>100</v>
+      </c>
+      <c r="L117" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M117" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N117" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O117" s="29"/>
+      <c r="P117" s="24"/>
+    </row>
+    <row r="118" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14">
+        <v>108</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C118" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F118" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G118" s="26">
+        <v>7133</v>
+      </c>
+      <c r="H118" s="51">
+        <v>40136</v>
+      </c>
+      <c r="I118" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J118" s="28">
+        <v>0</v>
+      </c>
+      <c r="K118" s="28">
+        <v>100</v>
+      </c>
+      <c r="L118" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M118" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N118" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O118" s="29"/>
+      <c r="P118" s="24"/>
+    </row>
+    <row r="119" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14">
+        <v>109</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G119" s="26">
+        <v>7135</v>
+      </c>
+      <c r="H119" s="51">
+        <v>40138</v>
+      </c>
+      <c r="I119" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J119" s="28">
+        <v>0</v>
+      </c>
+      <c r="K119" s="28">
+        <v>100</v>
+      </c>
+      <c r="L119" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M119" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N119" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O119" s="29"/>
+      <c r="P119" s="24"/>
+    </row>
+    <row r="120" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14">
+        <v>110</v>
+      </c>
+      <c r="B120" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G120" s="26">
+        <v>7137</v>
+      </c>
+      <c r="H120" s="51">
+        <v>40140</v>
+      </c>
+      <c r="I120" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J120" s="28">
+        <v>0</v>
+      </c>
+      <c r="K120" s="28">
+        <v>100</v>
+      </c>
+      <c r="L120" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M120" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N120" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O120" s="29"/>
+      <c r="P120" s="24"/>
+    </row>
+    <row r="121" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="14">
+        <v>111</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G121" s="26">
+        <v>7139</v>
+      </c>
+      <c r="H121" s="51">
+        <v>40142</v>
+      </c>
+      <c r="I121" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J121" s="28">
+        <v>0</v>
+      </c>
+      <c r="K121" s="28">
+        <v>100</v>
+      </c>
+      <c r="L121" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M121" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N121" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O121" s="29"/>
+      <c r="P121" s="24"/>
+    </row>
+    <row r="122" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="14">
+        <v>112</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G122" s="26">
+        <v>7141</v>
+      </c>
+      <c r="H122" s="51">
+        <v>40144</v>
+      </c>
+      <c r="I122" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J122" s="28">
+        <v>0</v>
+      </c>
+      <c r="K122" s="28">
+        <v>100</v>
+      </c>
+      <c r="L122" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M122" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N122" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O122" s="29"/>
+      <c r="P122" s="24"/>
+    </row>
+    <row r="123" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="14">
+        <v>113</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F123" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G123" s="26">
+        <v>7143</v>
+      </c>
+      <c r="H123" s="51">
+        <v>40146</v>
+      </c>
+      <c r="I123" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J123" s="28">
+        <v>0</v>
+      </c>
+      <c r="K123" s="28">
+        <v>100</v>
+      </c>
+      <c r="L123" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M123" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N123" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O123" s="29"/>
+      <c r="P123" s="24"/>
+    </row>
+    <row r="124" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14">
+        <v>114</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G124" s="26">
+        <v>7145</v>
+      </c>
+      <c r="H124" s="51">
+        <v>40148</v>
+      </c>
+      <c r="I124" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J124" s="28">
+        <v>0</v>
+      </c>
+      <c r="K124" s="28">
+        <v>100</v>
+      </c>
+      <c r="L124" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M124" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N124" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O124" s="29"/>
+      <c r="P124" s="24"/>
+    </row>
+    <row r="125" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="14">
+        <v>115</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G125" s="26">
+        <v>7147</v>
+      </c>
+      <c r="H125" s="51">
+        <v>40150</v>
+      </c>
+      <c r="I125" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J125" s="28">
+        <v>0</v>
+      </c>
+      <c r="K125" s="28">
+        <v>150</v>
+      </c>
+      <c r="L125" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M125" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N125" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O125" s="29"/>
+      <c r="P125" s="24"/>
+    </row>
+    <row r="126" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="14">
+        <v>116</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G126" s="26">
+        <v>7153</v>
+      </c>
+      <c r="H126" s="51">
+        <v>40152</v>
+      </c>
+      <c r="I126" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J126" s="28">
+        <v>0</v>
+      </c>
+      <c r="K126" s="28">
+        <v>100</v>
+      </c>
+      <c r="L126" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="M126" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N126" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O126" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="P126" s="24"/>
+    </row>
+    <row r="127" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="14">
         <v>88</v>
       </c>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="E116" s="17" t="s">
+      <c r="B127" s="15"/>
+      <c r="C127" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="E127" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F116" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G116" s="22"/>
-      <c r="H116" s="51">
+      <c r="F127" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G127" s="22"/>
+      <c r="H127" s="51">
+        <v>40164</v>
+      </c>
+      <c r="I127" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J127" s="18">
+        <v>0</v>
+      </c>
+      <c r="K127" s="42">
+        <v>300</v>
+      </c>
+      <c r="L127" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="M127" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N127" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O127" s="19"/>
+      <c r="P127" s="15"/>
+    </row>
+    <row r="128" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="14">
+        <v>88</v>
+      </c>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F128" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G128" s="22"/>
+      <c r="H128" s="51">
         <v>40168</v>
       </c>
-      <c r="I116" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J116" s="18">
+      <c r="I128" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J128" s="18">
         <v>0</v>
       </c>
-      <c r="K116" s="42">
+      <c r="K128" s="42">
         <v>300</v>
       </c>
-      <c r="L116" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="M116" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N116" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O116" s="19"/>
-      <c r="P116" s="15"/>
-    </row>
-    <row r="117" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="47"/>
-      <c r="D117" s="47"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="19"/>
-      <c r="P117" s="15"/>
-    </row>
-    <row r="121" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B121" s="32" t="s">
-        <v>406</v>
+      <c r="L128" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="M128" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N128" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O128" s="19"/>
+      <c r="P128" s="15"/>
+    </row>
+    <row r="129" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="47"/>
+      <c r="D129" s="47"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="34"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="18"/>
+      <c r="N129" s="18"/>
+      <c r="O129" s="19"/>
+      <c r="P129" s="15"/>
+    </row>
+    <row r="133" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B133" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:O1"/>
-    <mergeCell ref="B26:P26"/>
-    <mergeCell ref="B47:P47"/>
-    <mergeCell ref="B55:P55"/>
-    <mergeCell ref="B93:P93"/>
+    <mergeCell ref="B38:P38"/>
+    <mergeCell ref="B59:P59"/>
+    <mergeCell ref="B67:P67"/>
+    <mergeCell ref="B105:P105"/>
   </mergeCells>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="3" scale="62" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -8225,8 +8756,8 @@
 </oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="46" max="15" man="1"/>
-    <brk id="92" max="15" man="1"/>
+    <brk id="58" max="15" man="1"/>
+    <brk id="104" max="15" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8238,7 +8769,7 @@
   </sheetPr>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -8262,23 +8793,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
       <c r="O1" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8970,7 +9501,7 @@
         <v>94</v>
       </c>
       <c r="O17" s="52" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9063,35 +9594,35 @@
       <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="60"/>
+      <c r="B20" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="61"/>
     </row>
     <row r="21" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>19</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>25</v>
@@ -9100,7 +9631,7 @@
         <v>33</v>
       </c>
       <c r="G21" s="54" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H21" s="28" t="s">
         <v>28</v>
@@ -9131,10 +9662,10 @@
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>25</v>
@@ -9143,7 +9674,7 @@
         <v>33</v>
       </c>
       <c r="G22" s="54" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H22" s="28" t="s">
         <v>28</v>
@@ -9173,13 +9704,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>25</v>
@@ -9188,7 +9719,7 @@
         <v>33</v>
       </c>
       <c r="G23" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H23" s="28" t="s">
         <v>28</v>
@@ -9218,13 +9749,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>57</v>
@@ -9233,7 +9764,7 @@
         <v>33</v>
       </c>
       <c r="G24" s="54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H24" s="28" t="s">
         <v>28</v>
@@ -9264,13 +9795,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E25" s="26" t="s">
         <v>57</v>
@@ -9279,7 +9810,7 @@
         <v>33</v>
       </c>
       <c r="G25" s="54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H25" s="28" t="s">
         <v>28</v>
@@ -9310,13 +9841,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>25</v>
@@ -9325,7 +9856,7 @@
         <v>33</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H26" s="28" t="s">
         <v>28</v>
@@ -9356,13 +9887,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>25</v>
@@ -9371,7 +9902,7 @@
         <v>33</v>
       </c>
       <c r="G27" s="54" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>28</v>
@@ -9403,10 +9934,10 @@
       </c>
       <c r="B28" s="44"/>
       <c r="C28" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>25</v>
@@ -9415,7 +9946,7 @@
         <v>33</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H28" s="28" t="s">
         <v>28</v>
@@ -9446,13 +9977,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>25</v>
@@ -9461,7 +9992,7 @@
         <v>33</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H29" s="28" t="s">
         <v>28</v>
@@ -9493,10 +10024,10 @@
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>25</v>
@@ -9505,7 +10036,7 @@
         <v>33</v>
       </c>
       <c r="G30" s="54" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H30" s="28" t="s">
         <v>28</v>
@@ -9536,13 +10067,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>25</v>
@@ -9551,7 +10082,7 @@
         <v>33</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H31" s="28" t="s">
         <v>28</v>
@@ -9583,10 +10114,10 @@
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>25</v>
@@ -9595,7 +10126,7 @@
         <v>33</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H32" s="28" t="s">
         <v>28</v>
@@ -9619,7 +10150,7 @@
         <v>94</v>
       </c>
       <c r="O32" s="52" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P32" s="48"/>
     </row>
@@ -9629,10 +10160,10 @@
       </c>
       <c r="B33" s="44"/>
       <c r="C33" s="45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>25</v>
@@ -9641,7 +10172,7 @@
         <v>33</v>
       </c>
       <c r="G33" s="54" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H33" s="28" t="s">
         <v>28</v>
@@ -9673,10 +10204,10 @@
       </c>
       <c r="B34" s="44"/>
       <c r="C34" s="45" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>25</v>
@@ -9685,7 +10216,7 @@
         <v>33</v>
       </c>
       <c r="G34" s="54" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H34" s="28" t="s">
         <v>28</v>
@@ -9715,38 +10246,38 @@
       <c r="A35" s="14">
         <v>33</v>
       </c>
-      <c r="B35" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="63"/>
+      <c r="B35" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="64"/>
     </row>
     <row r="36" spans="1:16" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>34</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>33</v>
@@ -9773,45 +10304,45 @@
         <v>28</v>
       </c>
       <c r="N36" s="40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>35</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="64"/>
     </row>
     <row r="38" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>36</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>57</v>
@@ -9832,7 +10363,7 @@
         <v>3500</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L38" s="28" t="s">
         <v>28</v>
@@ -9848,13 +10379,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>57</v>
@@ -9875,7 +10406,7 @@
         <v>80</v>
       </c>
       <c r="K39" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L39" s="28" t="s">
         <v>28</v>
@@ -9891,13 +10422,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>57</v>
@@ -9918,7 +10449,7 @@
         <v>100</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L40" s="28" t="s">
         <v>28</v>
@@ -9934,13 +10465,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>57</v>
@@ -9961,7 +10492,7 @@
         <v>100</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L41" s="28" t="s">
         <v>28</v>
@@ -9977,13 +10508,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E42" s="26" t="s">
         <v>57</v>
@@ -10004,7 +10535,7 @@
         <v>100</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L42" s="28" t="s">
         <v>28</v>
@@ -10020,13 +10551,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>57</v>
@@ -10047,7 +10578,7 @@
         <v>100</v>
       </c>
       <c r="K43" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L43" s="28" t="s">
         <v>28</v>
@@ -10063,13 +10594,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>57</v>
@@ -10090,7 +10621,7 @@
         <v>100</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L44" s="28" t="s">
         <v>28</v>
@@ -10106,13 +10637,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>57</v>
@@ -10133,7 +10664,7 @@
         <v>100</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L45" s="28" t="s">
         <v>28</v>
@@ -10149,13 +10680,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>57</v>
@@ -10176,7 +10707,7 @@
         <v>100</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L46" s="28" t="s">
         <v>28</v>
@@ -10194,7 +10725,7 @@
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
       <c r="D47" s="25" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E47" s="26" t="s">
         <v>57</v>
@@ -10215,7 +10746,7 @@
         <v>100</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L47" s="28" t="s">
         <v>28</v>
@@ -10233,7 +10764,7 @@
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
       <c r="D48" s="25" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>57</v>
@@ -10254,7 +10785,7 @@
         <v>100</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L48" s="28" t="s">
         <v>28</v>
@@ -10270,13 +10801,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>57</v>
@@ -10297,7 +10828,7 @@
         <v>100</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L49" s="28" t="s">
         <v>28</v>
@@ -10313,13 +10844,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E50" s="26" t="s">
         <v>57</v>
@@ -10340,7 +10871,7 @@
         <v>100</v>
       </c>
       <c r="K50" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L50" s="28" t="s">
         <v>28</v>
@@ -10356,13 +10887,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E51" s="26" t="s">
         <v>57</v>
@@ -10383,7 +10914,7 @@
         <v>100</v>
       </c>
       <c r="K51" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L51" s="28" t="s">
         <v>28</v>
@@ -10399,13 +10930,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E52" s="26" t="s">
         <v>57</v>
@@ -10426,7 +10957,7 @@
         <v>100</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L52" s="28" t="s">
         <v>28</v>
@@ -10442,13 +10973,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E53" s="26" t="s">
         <v>57</v>
@@ -10469,7 +11000,7 @@
         <v>100</v>
       </c>
       <c r="K53" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L53" s="28" t="s">
         <v>28</v>
@@ -10485,13 +11016,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E54" s="26" t="s">
         <v>57</v>
@@ -10512,7 +11043,7 @@
         <v>100</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L54" s="28" t="s">
         <v>28</v>
@@ -10528,13 +11059,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E55" s="26" t="s">
         <v>57</v>
@@ -10555,7 +11086,7 @@
         <v>100</v>
       </c>
       <c r="K55" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L55" s="28" t="s">
         <v>28</v>
@@ -10571,13 +11102,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E56" s="26" t="s">
         <v>57</v>
@@ -10598,7 +11129,7 @@
         <v>100</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L56" s="28" t="s">
         <v>28</v>
@@ -10614,13 +11145,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E57" s="26" t="s">
         <v>57</v>
@@ -10641,7 +11172,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L57" s="28" t="s">
         <v>28</v>
@@ -10657,13 +11188,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>57</v>
@@ -10684,7 +11215,7 @@
         <v>100</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L58" s="28" t="s">
         <v>28</v>
@@ -10700,13 +11231,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E59" s="26" t="s">
         <v>57</v>
@@ -10727,7 +11258,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L59" s="28" t="s">
         <v>28</v>
@@ -10743,13 +11274,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E60" s="26" t="s">
         <v>57</v>
@@ -10770,7 +11301,7 @@
         <v>100</v>
       </c>
       <c r="K60" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L60" s="28" t="s">
         <v>28</v>
@@ -10786,13 +11317,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E61" s="26" t="s">
         <v>57</v>
@@ -10813,7 +11344,7 @@
         <v>100</v>
       </c>
       <c r="K61" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L61" s="28" t="s">
         <v>28</v>
@@ -10829,13 +11360,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E62" s="26" t="s">
         <v>57</v>
@@ -10856,7 +11387,7 @@
         <v>100</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L62" s="28" t="s">
         <v>28</v>
@@ -10874,7 +11405,7 @@
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="25" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E63" s="26" t="s">
         <v>57</v>
@@ -10895,7 +11426,7 @@
         <v>150</v>
       </c>
       <c r="K63" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L63" s="28" t="s">
         <v>28</v>
@@ -10911,13 +11442,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E64" s="26" t="s">
         <v>57</v>
@@ -10938,7 +11469,7 @@
         <v>100</v>
       </c>
       <c r="K64" s="28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L64" s="28" t="s">
         <v>28</v>
@@ -10947,7 +11478,7 @@
         <v>28</v>
       </c>
       <c r="N64" s="29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O64" s="52"/>
     </row>
@@ -10955,35 +11486,35 @@
       <c r="A65" s="14">
         <v>63</v>
       </c>
-      <c r="B65" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="C65" s="62"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="62"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="62"/>
-      <c r="N65" s="62"/>
-      <c r="O65" s="63"/>
+      <c r="B65" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="64"/>
     </row>
     <row r="66" spans="1:15" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>64</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E66" s="26" t="s">
         <v>57</v>
@@ -11004,7 +11535,7 @@
         <v>3500</v>
       </c>
       <c r="K66" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L66" s="28" t="s">
         <v>28</v>
@@ -11020,13 +11551,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E67" s="26" t="s">
         <v>57</v>
@@ -11047,7 +11578,7 @@
         <v>80</v>
       </c>
       <c r="K67" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L67" s="28" t="s">
         <v>28</v>
@@ -11063,13 +11594,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C68" s="53" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E68" s="26" t="s">
         <v>57</v>
@@ -11090,7 +11621,7 @@
         <v>100</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L68" s="28" t="s">
         <v>28</v>
@@ -11106,13 +11637,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E69" s="26" t="s">
         <v>57</v>
@@ -11133,7 +11664,7 @@
         <v>100</v>
       </c>
       <c r="K69" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L69" s="28" t="s">
         <v>28</v>
@@ -11149,13 +11680,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E70" s="26" t="s">
         <v>57</v>
@@ -11176,7 +11707,7 @@
         <v>100</v>
       </c>
       <c r="K70" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L70" s="28" t="s">
         <v>28</v>
@@ -11192,13 +11723,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E71" s="26" t="s">
         <v>57</v>
@@ -11219,7 +11750,7 @@
         <v>100</v>
       </c>
       <c r="K71" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L71" s="28" t="s">
         <v>28</v>
@@ -11235,13 +11766,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E72" s="26" t="s">
         <v>57</v>
@@ -11262,7 +11793,7 @@
         <v>100</v>
       </c>
       <c r="K72" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L72" s="28" t="s">
         <v>28</v>
@@ -11278,13 +11809,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>57</v>
@@ -11305,7 +11836,7 @@
         <v>100</v>
       </c>
       <c r="K73" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L73" s="28" t="s">
         <v>28</v>
@@ -11321,13 +11852,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E74" s="26" t="s">
         <v>57</v>
@@ -11348,7 +11879,7 @@
         <v>100</v>
       </c>
       <c r="K74" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L74" s="28" t="s">
         <v>28</v>
@@ -11364,13 +11895,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E75" s="26" t="s">
         <v>57</v>
@@ -11391,7 +11922,7 @@
         <v>100</v>
       </c>
       <c r="K75" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L75" s="28" t="s">
         <v>28</v>
@@ -11407,13 +11938,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>57</v>
@@ -11434,7 +11965,7 @@
         <v>100</v>
       </c>
       <c r="K76" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L76" s="28" t="s">
         <v>28</v>
@@ -11450,13 +11981,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E77" s="26" t="s">
         <v>57</v>
@@ -11477,7 +12008,7 @@
         <v>100</v>
       </c>
       <c r="K77" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L77" s="28" t="s">
         <v>28</v>
@@ -11493,13 +12024,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E78" s="26" t="s">
         <v>57</v>
@@ -11520,7 +12051,7 @@
         <v>100</v>
       </c>
       <c r="K78" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L78" s="28" t="s">
         <v>28</v>
@@ -11533,7 +12064,7 @@
     </row>
     <row r="82" spans="2:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B82" s="32" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -11578,10 +12109,10 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -11589,100 +12120,100 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -11692,7 +12223,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -11702,7 +12233,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -11712,7 +12243,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -11727,6 +12258,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9E048A78312A94897F0E6646B12AFBF" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7abb3b361358b065e226e2691a9a9dbd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b8b857fa-ab8c-46db-8ae6-f4c6b17fc121" xmlns:ns3="27204c16-4a37-455d-9af4-3dab56a7ac7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636fad88d2de2b9608e4f461b7203fff" ns2:_="" ns3:_="">
     <xsd:import namespace="b8b857fa-ab8c-46db-8ae6-f4c6b17fc121"/>
@@ -11929,22 +12475,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93D610DB-2612-46C9-BC3A-E7E198938908}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E7456FA-3502-4744-AF75-C74DDC4FA618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46ADFC53-F231-4A71-A183-DB4D3C802BF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11961,21 +12509,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E7456FA-3502-4744-AF75-C74DDC4FA618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93D610DB-2612-46C9-BC3A-E7E198938908}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PIPESTONE_PPF_MODBUS_MAP_REV_3.xlsx
+++ b/PIPESTONE_PPF_MODBUS_MAP_REV_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougd\Desktop\git\OVINTIV_PIPESTONE_PPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B818972E-55CD-46E3-8208-C676877DDF86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDB78B5-89F5-40C1-80BC-DE28A3288D89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27270" yWindow="795" windowWidth="26730" windowHeight="14475" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27555" yWindow="315" windowWidth="24600" windowHeight="14475" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision Changes" sheetId="18" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="A" localSheetId="1">#REF!</definedName>
     <definedName name="A" localSheetId="2">#REF!</definedName>
     <definedName name="A">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">HMI_Datamap!$A$1:$P$133</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">HMI_Datamap!$A$1:$P$145</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">PPF_CLIENT_Datamap!$A$1:$O$82</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">HMI_Datamap!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">PPF_CLIENT_Datamap!#REF!</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="465">
   <si>
     <t>From</t>
   </si>
@@ -1544,7 +1544,139 @@
     <t>00041</t>
   </si>
   <si>
-    <t>11</t>
+    <t>00027</t>
+  </si>
+  <si>
+    <t>00028</t>
+  </si>
+  <si>
+    <t>00029</t>
+  </si>
+  <si>
+    <t>Stream_1_Analyzer_Warning_Test_Enable</t>
+  </si>
+  <si>
+    <t>Stream_1_Analyzer_Warning_Test</t>
+  </si>
+  <si>
+    <t>Stream_1_Analyzer_Fault_Test_Enable</t>
+  </si>
+  <si>
+    <t>Stream_1_Analyzer_Fault_Test</t>
+  </si>
+  <si>
+    <t>Stream_1_Model_Fault_Test_Enable</t>
+  </si>
+  <si>
+    <t>Stream_1_Model_Fault_Test</t>
+  </si>
+  <si>
+    <t>Stream_1_Model_Warning_Test_Enable</t>
+  </si>
+  <si>
+    <t>Stream_1_Model_Warning_Test</t>
+  </si>
+  <si>
+    <t>Stream_1_Sample_Plan_Test_Enable</t>
+  </si>
+  <si>
+    <t>Stream_1_Sample_Plan_Test</t>
+  </si>
+  <si>
+    <t>Stream_1_Transmission_Test_Enable</t>
+  </si>
+  <si>
+    <t>Stream_1_Interruption_Valve</t>
+  </si>
+  <si>
+    <t>Stream_2_Analyzer_Warning_Test_Enable</t>
+  </si>
+  <si>
+    <t>Stream_2_Analyzer_Warning_Test</t>
+  </si>
+  <si>
+    <t>Stream_2_Analyzer_Fault_Test_Enable</t>
+  </si>
+  <si>
+    <t>Stream_2_Analyzer_Fault_Test</t>
+  </si>
+  <si>
+    <t>Stream_2_Model_Warning_Test_Enable</t>
+  </si>
+  <si>
+    <t>Stream_2_Model_Warning_Test</t>
+  </si>
+  <si>
+    <t>Stream_2_Model_Fault_Test_Enable</t>
+  </si>
+  <si>
+    <t>Stream_2_Model_Fault_Test</t>
+  </si>
+  <si>
+    <t>Stream_2_Sample_Plan_Test_Enable</t>
+  </si>
+  <si>
+    <t>Stream_2_Sample_Plan_Test</t>
+  </si>
+  <si>
+    <t>Stream_2_Transmission_Test_Enable</t>
+  </si>
+  <si>
+    <t>Stream_2_Interruption_Valve</t>
+  </si>
+  <si>
+    <t>00070</t>
+  </si>
+  <si>
+    <t>00071</t>
+  </si>
+  <si>
+    <t>00072</t>
+  </si>
+  <si>
+    <t>00073</t>
+  </si>
+  <si>
+    <t>00074</t>
+  </si>
+  <si>
+    <t>00075</t>
+  </si>
+  <si>
+    <t>00076</t>
+  </si>
+  <si>
+    <t>00077</t>
+  </si>
+  <si>
+    <t>00078</t>
+  </si>
+  <si>
+    <t>00079</t>
+  </si>
+  <si>
+    <t>00080</t>
+  </si>
+  <si>
+    <t>00081</t>
+  </si>
+  <si>
+    <t>Stream 2 Transmission Test</t>
+  </si>
+  <si>
+    <t>Stream 2 Valve Open Time</t>
+  </si>
+  <si>
+    <t>Stream_1_Spare</t>
+  </si>
+  <si>
+    <t>Stream 1 - Spare</t>
+  </si>
+  <si>
+    <t>Stream_2_Spare</t>
+  </si>
+  <si>
+    <t>Stream 2 - Spare</t>
   </si>
 </sst>
 </file>
@@ -2537,6 +2669,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2560,15 +2701,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="101">
@@ -3155,17 +3287,17 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:Q133"/>
+  <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" customWidth="1"/>
     <col min="4" max="4" width="50.109375" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
@@ -3182,22 +3314,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1" s="7" t="s">
         <v>404</v>
       </c>
@@ -3431,7 +3563,7 @@
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="49" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>28</v>
@@ -3523,7 +3655,7 @@
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="49" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>28</v>
@@ -3569,7 +3701,7 @@
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>28</v>
@@ -3615,7 +3747,7 @@
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="49" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>28</v>
@@ -3661,7 +3793,7 @@
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="49" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>28</v>
@@ -3751,7 +3883,7 @@
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="49" t="s">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>28</v>
@@ -3795,7 +3927,7 @@
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="49" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>28</v>
@@ -3872,10 +4004,10 @@
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="45" t="s">
-        <v>91</v>
+        <v>461</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>92</v>
+        <v>462</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>25</v>
@@ -3931,7 +4063,7 @@
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="49" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>28</v>
@@ -3975,7 +4107,7 @@
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="49" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>28</v>
@@ -4019,7 +4151,7 @@
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="49" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>28</v>
@@ -4063,7 +4195,7 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="49" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>28</v>
@@ -4107,7 +4239,7 @@
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="49" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>28</v>
@@ -4151,7 +4283,7 @@
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="49" t="s">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>28</v>
@@ -4195,7 +4327,7 @@
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="49" t="s">
-        <v>100</v>
+        <v>421</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>28</v>
@@ -4239,7 +4371,7 @@
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="49" t="s">
-        <v>110</v>
+        <v>422</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>28</v>
@@ -4269,7 +4401,9 @@
         <v>23</v>
       </c>
       <c r="B26" s="22"/>
-      <c r="C26" s="41"/>
+      <c r="C26" s="41" t="s">
+        <v>423</v>
+      </c>
       <c r="D26" s="23"/>
       <c r="E26" s="17" t="s">
         <v>25</v>
@@ -4309,7 +4443,9 @@
         <v>23</v>
       </c>
       <c r="B27" s="22"/>
-      <c r="C27" s="41"/>
+      <c r="C27" s="41" t="s">
+        <v>424</v>
+      </c>
       <c r="D27" s="23"/>
       <c r="E27" s="17" t="s">
         <v>25</v>
@@ -4349,7 +4485,9 @@
         <v>23</v>
       </c>
       <c r="B28" s="22"/>
-      <c r="C28" s="41"/>
+      <c r="C28" s="41" t="s">
+        <v>425</v>
+      </c>
       <c r="D28" s="23"/>
       <c r="E28" s="17" t="s">
         <v>25</v>
@@ -4389,7 +4527,9 @@
         <v>23</v>
       </c>
       <c r="B29" s="22"/>
-      <c r="C29" s="41"/>
+      <c r="C29" s="41" t="s">
+        <v>426</v>
+      </c>
       <c r="D29" s="23"/>
       <c r="E29" s="17" t="s">
         <v>25</v>
@@ -4429,7 +4569,9 @@
         <v>23</v>
       </c>
       <c r="B30" s="22"/>
-      <c r="C30" s="41"/>
+      <c r="C30" s="41" t="s">
+        <v>429</v>
+      </c>
       <c r="D30" s="23"/>
       <c r="E30" s="17" t="s">
         <v>25</v>
@@ -4469,7 +4611,9 @@
         <v>23</v>
       </c>
       <c r="B31" s="22"/>
-      <c r="C31" s="41"/>
+      <c r="C31" s="41" t="s">
+        <v>430</v>
+      </c>
       <c r="D31" s="23"/>
       <c r="E31" s="17" t="s">
         <v>25</v>
@@ -4509,7 +4653,9 @@
         <v>23</v>
       </c>
       <c r="B32" s="22"/>
-      <c r="C32" s="41"/>
+      <c r="C32" s="41" t="s">
+        <v>427</v>
+      </c>
       <c r="D32" s="23"/>
       <c r="E32" s="17" t="s">
         <v>25</v>
@@ -4549,7 +4695,9 @@
         <v>23</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="41"/>
+      <c r="C33" s="41" t="s">
+        <v>428</v>
+      </c>
       <c r="D33" s="23"/>
       <c r="E33" s="17" t="s">
         <v>25</v>
@@ -4589,7 +4737,9 @@
         <v>23</v>
       </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="41"/>
+      <c r="C34" s="41" t="s">
+        <v>431</v>
+      </c>
       <c r="D34" s="23"/>
       <c r="E34" s="17" t="s">
         <v>25</v>
@@ -4629,7 +4779,9 @@
         <v>23</v>
       </c>
       <c r="B35" s="22"/>
-      <c r="C35" s="41"/>
+      <c r="C35" s="41" t="s">
+        <v>432</v>
+      </c>
       <c r="D35" s="23"/>
       <c r="E35" s="17" t="s">
         <v>25</v>
@@ -4669,7 +4821,9 @@
         <v>23</v>
       </c>
       <c r="B36" s="22"/>
-      <c r="C36" s="41"/>
+      <c r="C36" s="41" t="s">
+        <v>433</v>
+      </c>
       <c r="D36" s="23"/>
       <c r="E36" s="17" t="s">
         <v>25</v>
@@ -4709,7 +4863,9 @@
         <v>23</v>
       </c>
       <c r="B37" s="22"/>
-      <c r="C37" s="41"/>
+      <c r="C37" s="41" t="s">
+        <v>434</v>
+      </c>
       <c r="D37" s="23"/>
       <c r="E37" s="17" t="s">
         <v>25</v>
@@ -4748,23 +4904,23 @@
       <c r="A38" s="14">
         <v>24</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="61"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="64"/>
     </row>
     <row r="39" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
@@ -5280,10 +5436,10 @@
       </c>
       <c r="B50" s="44"/>
       <c r="C50" s="45" t="s">
-        <v>163</v>
+        <v>463</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
       <c r="E50" s="26" t="s">
         <v>25</v>
@@ -5675,534 +5831,554 @@
       </c>
       <c r="P58" s="15"/>
     </row>
-    <row r="59" spans="1:17" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
+        <v>44</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="D59" s="41"/>
+      <c r="E59" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="17"/>
+      <c r="H59" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L59" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M59" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N59" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O59" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P59" s="15"/>
+    </row>
+    <row r="60" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>44</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="D60" s="41"/>
+      <c r="E60" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="17"/>
+      <c r="H60" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K60" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L60" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M60" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N60" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O60" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P60" s="15"/>
+    </row>
+    <row r="61" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>44</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="D61" s="41"/>
+      <c r="E61" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="17"/>
+      <c r="H61" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M61" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O61" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P61" s="15"/>
+    </row>
+    <row r="62" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>44</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="17"/>
+      <c r="H62" s="49" t="s">
+        <v>450</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K62" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L62" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O62" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P62" s="15"/>
+    </row>
+    <row r="63" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>44</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="41" t="s">
+        <v>439</v>
+      </c>
+      <c r="D63" s="41"/>
+      <c r="E63" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="17"/>
+      <c r="H63" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J63" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K63" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O63" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P63" s="15"/>
+    </row>
+    <row r="64" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>44</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="D64" s="41"/>
+      <c r="E64" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="17"/>
+      <c r="H64" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K64" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O64" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P64" s="15"/>
+    </row>
+    <row r="65" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>44</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="D65" s="41"/>
+      <c r="E65" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="17"/>
+      <c r="H65" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M65" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N65" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O65" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P65" s="15"/>
+    </row>
+    <row r="66" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>44</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="D66" s="41"/>
+      <c r="E66" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="17"/>
+      <c r="H66" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L66" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M66" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O66" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P66" s="15"/>
+    </row>
+    <row r="67" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <v>44</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="D67" s="41"/>
+      <c r="E67" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="17"/>
+      <c r="H67" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K67" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L67" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M67" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O67" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P67" s="15"/>
+    </row>
+    <row r="68" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
+        <v>44</v>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="D68" s="41"/>
+      <c r="E68" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="17"/>
+      <c r="H68" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O68" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P68" s="15"/>
+    </row>
+    <row r="69" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <v>44</v>
+      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="D69" s="41"/>
+      <c r="E69" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="17"/>
+      <c r="H69" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J69" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L69" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M69" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O69" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P69" s="15"/>
+    </row>
+    <row r="70" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>44</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="D70" s="41"/>
+      <c r="E70" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="17"/>
+      <c r="H70" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K70" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L70" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M70" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O70" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P70" s="15"/>
+    </row>
+    <row r="71" spans="1:16" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
         <v>45</v>
       </c>
-      <c r="B59" s="62" t="s">
+      <c r="B71" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="63"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="64"/>
-    </row>
-    <row r="60" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="66"/>
+      <c r="M71" s="66"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="66"/>
+      <c r="P71" s="67"/>
+    </row>
+    <row r="72" spans="1:16" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
         <v>46</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B72" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C72" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D72" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E72" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60" s="26"/>
-      <c r="H60" s="51">
+      <c r="F72" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="26"/>
+      <c r="H72" s="51">
         <v>40001</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J60" s="28">
-        <v>0</v>
-      </c>
-      <c r="K60" s="28">
-        <v>60</v>
-      </c>
-      <c r="L60" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M60" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N60" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O60" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="P60" s="24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
-        <v>47</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="51">
-        <v>40002</v>
-      </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18">
-        <v>2016</v>
-      </c>
-      <c r="K61" s="18">
-        <v>2116</v>
-      </c>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="P61" s="15"/>
-    </row>
-    <row r="62" spans="1:17" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
-        <v>48</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" s="17"/>
-      <c r="H62" s="51">
-        <v>40003</v>
-      </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18">
-        <v>1</v>
-      </c>
-      <c r="K62" s="18">
-        <v>12</v>
-      </c>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="P62" s="15"/>
-    </row>
-    <row r="63" spans="1:17" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
-        <v>49</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G63" s="17"/>
-      <c r="H63" s="51">
-        <v>40004</v>
-      </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18">
-        <v>1</v>
-      </c>
-      <c r="K63" s="18">
-        <v>31</v>
-      </c>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="P63" s="15"/>
-    </row>
-    <row r="64" spans="1:17" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
-        <v>50</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G64" s="17"/>
-      <c r="H64" s="51">
-        <v>40005</v>
-      </c>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18">
-        <v>0</v>
-      </c>
-      <c r="K64" s="18">
-        <v>24</v>
-      </c>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="P64" s="15"/>
-    </row>
-    <row r="65" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
-        <v>51</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="51">
-        <v>40006</v>
-      </c>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18">
-        <v>0</v>
-      </c>
-      <c r="K65" s="18">
-        <v>60</v>
-      </c>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="P65" s="15"/>
-    </row>
-    <row r="66" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
-        <v>52</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G66" s="17"/>
-      <c r="H66" s="51">
-        <v>40007</v>
-      </c>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18">
-        <v>0</v>
-      </c>
-      <c r="K66" s="18">
-        <v>60</v>
-      </c>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="P66" s="15"/>
-    </row>
-    <row r="67" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14">
-        <v>53</v>
-      </c>
-      <c r="B67" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="64"/>
-    </row>
-    <row r="68" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
-        <v>54</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G68" s="26">
-        <v>7049</v>
-      </c>
-      <c r="H68" s="51">
-        <v>40010</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" s="28">
-        <v>0</v>
-      </c>
-      <c r="K68" s="28">
-        <v>3500</v>
-      </c>
-      <c r="L68" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="M68" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N68" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O68" s="29"/>
-      <c r="P68" s="24"/>
-    </row>
-    <row r="69" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14">
-        <v>55</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F69" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G69" s="26">
-        <v>7051</v>
-      </c>
-      <c r="H69" s="51">
-        <v>40012</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J69" s="28">
-        <v>-20</v>
-      </c>
-      <c r="K69" s="28">
-        <v>80</v>
-      </c>
-      <c r="L69" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="M69" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N69" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O69" s="29"/>
-      <c r="P69" s="24"/>
-    </row>
-    <row r="70" spans="1:16" s="21" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
-        <v>56</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G70" s="26">
-        <v>7017</v>
-      </c>
-      <c r="H70" s="51">
-        <v>40014</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J70" s="28">
-        <v>0</v>
-      </c>
-      <c r="K70" s="28">
-        <v>100</v>
-      </c>
-      <c r="L70" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="M70" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N70" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O70" s="29"/>
-      <c r="P70" s="24"/>
-    </row>
-    <row r="71" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14">
-        <v>57</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G71" s="26">
-        <v>7001</v>
-      </c>
-      <c r="H71" s="51">
-        <v>40016</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J71" s="28">
-        <v>0</v>
-      </c>
-      <c r="K71" s="28">
-        <v>100</v>
-      </c>
-      <c r="L71" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M71" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N71" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O71" s="29"/>
-      <c r="P71" s="24"/>
-    </row>
-    <row r="72" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14">
-        <v>58</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G72" s="26">
-        <v>7003</v>
-      </c>
-      <c r="H72" s="51">
-        <v>40018</v>
       </c>
       <c r="I72" s="28" t="s">
         <v>28</v>
@@ -6211,10 +6387,10 @@
         <v>0</v>
       </c>
       <c r="K72" s="28">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L72" s="28" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="M72" s="28" t="s">
         <v>28</v>
@@ -6222,331 +6398,275 @@
       <c r="N72" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="O72" s="29"/>
-      <c r="P72" s="24"/>
-    </row>
-    <row r="73" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O72" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="P72" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
-        <v>59</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G73" s="26">
-        <v>7005</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="17"/>
       <c r="H73" s="51">
-        <v>40020</v>
-      </c>
-      <c r="I73" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J73" s="28">
+        <v>40002</v>
+      </c>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18">
+        <v>2016</v>
+      </c>
+      <c r="K73" s="18">
+        <v>2116</v>
+      </c>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="P73" s="15"/>
+    </row>
+    <row r="74" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
+        <v>48</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74" s="17"/>
+      <c r="H74" s="51">
+        <v>40003</v>
+      </c>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18">
+        <v>1</v>
+      </c>
+      <c r="K74" s="18">
+        <v>12</v>
+      </c>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="P74" s="15"/>
+    </row>
+    <row r="75" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
+        <v>49</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" s="17"/>
+      <c r="H75" s="51">
+        <v>40004</v>
+      </c>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18">
+        <v>1</v>
+      </c>
+      <c r="K75" s="18">
+        <v>31</v>
+      </c>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="P75" s="15"/>
+    </row>
+    <row r="76" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <v>50</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" s="17"/>
+      <c r="H76" s="51">
+        <v>40005</v>
+      </c>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18">
         <v>0</v>
       </c>
-      <c r="K73" s="28">
-        <v>100</v>
-      </c>
-      <c r="L73" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M73" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N73" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O73" s="29"/>
-      <c r="P73" s="24"/>
-    </row>
-    <row r="74" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
+      <c r="K76" s="18">
+        <v>24</v>
+      </c>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="P76" s="15"/>
+    </row>
+    <row r="77" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
+        <v>51</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G77" s="17"/>
+      <c r="H77" s="51">
+        <v>40006</v>
+      </c>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18">
+        <v>0</v>
+      </c>
+      <c r="K77" s="18">
         <v>60</v>
       </c>
-      <c r="B74" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F74" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G74" s="26">
-        <v>7007</v>
-      </c>
-      <c r="H74" s="51">
-        <v>40022</v>
-      </c>
-      <c r="I74" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" s="28">
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="P77" s="15"/>
+    </row>
+    <row r="78" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
+        <v>52</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G78" s="17"/>
+      <c r="H78" s="51">
+        <v>40007</v>
+      </c>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18">
         <v>0</v>
       </c>
-      <c r="K74" s="28">
-        <v>100</v>
-      </c>
-      <c r="L74" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M74" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N74" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O74" s="29"/>
-      <c r="P74" s="24"/>
-    </row>
-    <row r="75" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14">
-        <v>61</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G75" s="26">
-        <v>7009</v>
-      </c>
-      <c r="H75" s="51">
-        <v>40024</v>
-      </c>
-      <c r="I75" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J75" s="28">
-        <v>0</v>
-      </c>
-      <c r="K75" s="28">
-        <v>100</v>
-      </c>
-      <c r="L75" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M75" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N75" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O75" s="29"/>
-      <c r="P75" s="24"/>
-    </row>
-    <row r="76" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
-        <v>62</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G76" s="26">
-        <v>7011</v>
-      </c>
-      <c r="H76" s="51">
-        <v>40026</v>
-      </c>
-      <c r="I76" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J76" s="28">
-        <v>0</v>
-      </c>
-      <c r="K76" s="28">
-        <v>100</v>
-      </c>
-      <c r="L76" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M76" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N76" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O76" s="29"/>
-      <c r="P76" s="24"/>
-    </row>
-    <row r="77" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14">
-        <v>63</v>
-      </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F77" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G77" s="26">
-        <v>7013</v>
-      </c>
-      <c r="H77" s="33">
-        <v>40028</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J77" s="28">
-        <v>0</v>
-      </c>
-      <c r="K77" s="28">
-        <v>100</v>
-      </c>
-      <c r="L77" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M77" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N77" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O77" s="29"/>
-      <c r="P77" s="24"/>
-    </row>
-    <row r="78" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14">
-        <v>64</v>
-      </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F78" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G78" s="26">
-        <v>7015</v>
-      </c>
-      <c r="H78" s="33">
-        <v>40030</v>
-      </c>
-      <c r="I78" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J78" s="28">
-        <v>0</v>
-      </c>
-      <c r="K78" s="28">
-        <v>100</v>
-      </c>
-      <c r="L78" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M78" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N78" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O78" s="29"/>
-      <c r="P78" s="50"/>
-    </row>
-    <row r="79" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K78" s="18">
+        <v>60</v>
+      </c>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="P78" s="15"/>
+    </row>
+    <row r="79" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
-        <v>65</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="C79" s="65" t="s">
-        <v>375</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G79" s="26">
-        <v>7019</v>
-      </c>
-      <c r="H79" s="51">
-        <v>40032</v>
-      </c>
-      <c r="I79" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79" s="28">
-        <v>0</v>
-      </c>
-      <c r="K79" s="28">
-        <v>100</v>
-      </c>
-      <c r="L79" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="M79" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N79" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O79" s="29"/>
-      <c r="P79" s="50"/>
+        <v>53</v>
+      </c>
+      <c r="B79" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="66"/>
+      <c r="L79" s="66"/>
+      <c r="M79" s="66"/>
+      <c r="N79" s="66"/>
+      <c r="O79" s="66"/>
+      <c r="P79" s="67"/>
     </row>
     <row r="80" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
-        <v>66</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="C80" s="65" t="s">
-        <v>376</v>
+        <v>54</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>366</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E80" s="26" t="s">
         <v>57</v>
@@ -6555,10 +6675,10 @@
         <v>33</v>
       </c>
       <c r="G80" s="26">
-        <v>7021</v>
+        <v>7049</v>
       </c>
       <c r="H80" s="51">
-        <v>40034</v>
+        <v>40010</v>
       </c>
       <c r="I80" s="28" t="s">
         <v>28</v>
@@ -6567,10 +6687,10 @@
         <v>0</v>
       </c>
       <c r="K80" s="28">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="L80" s="28" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="M80" s="28" t="s">
         <v>28</v>
@@ -6583,16 +6703,16 @@
     </row>
     <row r="81" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
-        <v>67</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="C81" s="65" t="s">
-        <v>377</v>
+        <v>55</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>367</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E81" s="26" t="s">
         <v>57</v>
@@ -6601,22 +6721,22 @@
         <v>33</v>
       </c>
       <c r="G81" s="26">
-        <v>7023</v>
+        <v>7051</v>
       </c>
       <c r="H81" s="51">
-        <v>40036</v>
+        <v>40012</v>
       </c>
       <c r="I81" s="28" t="s">
         <v>28</v>
       </c>
       <c r="J81" s="28">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="K81" s="28">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L81" s="28" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="M81" s="28" t="s">
         <v>28</v>
@@ -6627,18 +6747,18 @@
       <c r="O81" s="29"/>
       <c r="P81" s="24"/>
     </row>
-    <row r="82" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" s="21" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="C82" s="65" t="s">
-        <v>378</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>226</v>
+        <v>215</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>216</v>
       </c>
       <c r="E82" s="26" t="s">
         <v>57</v>
@@ -6647,10 +6767,10 @@
         <v>33</v>
       </c>
       <c r="G82" s="26">
-        <v>7025</v>
+        <v>7017</v>
       </c>
       <c r="H82" s="51">
-        <v>40038</v>
+        <v>40014</v>
       </c>
       <c r="I82" s="28" t="s">
         <v>28</v>
@@ -6662,7 +6782,7 @@
         <v>100</v>
       </c>
       <c r="L82" s="28" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="M82" s="28" t="s">
         <v>28</v>
@@ -6675,16 +6795,16 @@
     </row>
     <row r="83" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="C83" s="65" t="s">
-        <v>379</v>
+        <v>218</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>369</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E83" s="26" t="s">
         <v>57</v>
@@ -6693,10 +6813,10 @@
         <v>33</v>
       </c>
       <c r="G83" s="26">
-        <v>7027</v>
+        <v>7001</v>
       </c>
       <c r="H83" s="51">
-        <v>40040</v>
+        <v>40016</v>
       </c>
       <c r="I83" s="28" t="s">
         <v>28</v>
@@ -6708,7 +6828,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="28" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M83" s="28" t="s">
         <v>28</v>
@@ -6721,16 +6841,16 @@
     </row>
     <row r="84" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="C84" s="65" t="s">
-        <v>380</v>
+        <v>221</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>370</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E84" s="26" t="s">
         <v>57</v>
@@ -6739,10 +6859,10 @@
         <v>33</v>
       </c>
       <c r="G84" s="26">
-        <v>7029</v>
+        <v>7003</v>
       </c>
       <c r="H84" s="51">
-        <v>40042</v>
+        <v>40018</v>
       </c>
       <c r="I84" s="28" t="s">
         <v>28</v>
@@ -6754,7 +6874,7 @@
         <v>100</v>
       </c>
       <c r="L84" s="28" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M84" s="28" t="s">
         <v>28</v>
@@ -6767,16 +6887,16 @@
     </row>
     <row r="85" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="C85" s="65" t="s">
-        <v>381</v>
+        <v>223</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>371</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E85" s="26" t="s">
         <v>57</v>
@@ -6785,10 +6905,10 @@
         <v>33</v>
       </c>
       <c r="G85" s="26">
-        <v>7031</v>
+        <v>7005</v>
       </c>
       <c r="H85" s="51">
-        <v>40044</v>
+        <v>40020</v>
       </c>
       <c r="I85" s="28" t="s">
         <v>28</v>
@@ -6800,7 +6920,7 @@
         <v>100</v>
       </c>
       <c r="L85" s="28" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M85" s="28" t="s">
         <v>28</v>
@@ -6813,16 +6933,16 @@
     </row>
     <row r="86" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="C86" s="65" t="s">
-        <v>382</v>
+        <v>225</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>372</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>355</v>
+        <v>226</v>
       </c>
       <c r="E86" s="26" t="s">
         <v>57</v>
@@ -6831,10 +6951,10 @@
         <v>33</v>
       </c>
       <c r="G86" s="26">
-        <v>7033</v>
+        <v>7007</v>
       </c>
       <c r="H86" s="51">
-        <v>40046</v>
+        <v>40022</v>
       </c>
       <c r="I86" s="28" t="s">
         <v>28</v>
@@ -6846,7 +6966,7 @@
         <v>100</v>
       </c>
       <c r="L86" s="28" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M86" s="28" t="s">
         <v>28</v>
@@ -6859,16 +6979,16 @@
     </row>
     <row r="87" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="C87" s="65" t="s">
-        <v>383</v>
+        <v>227</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>373</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E87" s="26" t="s">
         <v>57</v>
@@ -6877,10 +6997,10 @@
         <v>33</v>
       </c>
       <c r="G87" s="26">
-        <v>7035</v>
+        <v>7009</v>
       </c>
       <c r="H87" s="51">
-        <v>40048</v>
+        <v>40024</v>
       </c>
       <c r="I87" s="28" t="s">
         <v>28</v>
@@ -6892,7 +7012,7 @@
         <v>100</v>
       </c>
       <c r="L87" s="28" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M87" s="28" t="s">
         <v>28</v>
@@ -6905,16 +7025,16 @@
     </row>
     <row r="88" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C88" s="65" t="s">
-        <v>384</v>
+        <v>229</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>374</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="E88" s="26" t="s">
         <v>57</v>
@@ -6923,10 +7043,10 @@
         <v>33</v>
       </c>
       <c r="G88" s="26">
-        <v>7037</v>
+        <v>7011</v>
       </c>
       <c r="H88" s="51">
-        <v>40050</v>
+        <v>40026</v>
       </c>
       <c r="I88" s="28" t="s">
         <v>28</v>
@@ -6938,7 +7058,7 @@
         <v>100</v>
       </c>
       <c r="L88" s="28" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M88" s="28" t="s">
         <v>28</v>
@@ -6951,17 +7071,11 @@
     </row>
     <row r="89" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
-        <v>75</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="C89" s="65" t="s">
-        <v>385</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>246</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="25"/>
       <c r="E89" s="26" t="s">
         <v>57</v>
       </c>
@@ -6969,10 +7083,10 @@
         <v>33</v>
       </c>
       <c r="G89" s="26">
-        <v>7039</v>
-      </c>
-      <c r="H89" s="51">
-        <v>40052</v>
+        <v>7013</v>
+      </c>
+      <c r="H89" s="33">
+        <v>40028</v>
       </c>
       <c r="I89" s="28" t="s">
         <v>28</v>
@@ -6984,7 +7098,7 @@
         <v>100</v>
       </c>
       <c r="L89" s="28" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M89" s="28" t="s">
         <v>28</v>
@@ -6997,17 +7111,11 @@
     </row>
     <row r="90" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
-        <v>76</v>
-      </c>
-      <c r="B90" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="C90" s="65" t="s">
-        <v>386</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>248</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="25"/>
       <c r="E90" s="26" t="s">
         <v>57</v>
       </c>
@@ -7015,10 +7123,10 @@
         <v>33</v>
       </c>
       <c r="G90" s="26">
-        <v>7041</v>
-      </c>
-      <c r="H90" s="51">
-        <v>40054</v>
+        <v>7015</v>
+      </c>
+      <c r="H90" s="33">
+        <v>40030</v>
       </c>
       <c r="I90" s="28" t="s">
         <v>28</v>
@@ -7030,7 +7138,7 @@
         <v>100</v>
       </c>
       <c r="L90" s="28" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M90" s="28" t="s">
         <v>28</v>
@@ -7039,20 +7147,20 @@
         <v>28</v>
       </c>
       <c r="O90" s="29"/>
-      <c r="P90" s="24"/>
+      <c r="P90" s="50"/>
     </row>
     <row r="91" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="C91" s="65" t="s">
-        <v>387</v>
+        <v>232</v>
+      </c>
+      <c r="C91" s="57" t="s">
+        <v>375</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>57</v>
@@ -7061,10 +7169,10 @@
         <v>33</v>
       </c>
       <c r="G91" s="26">
-        <v>7043</v>
+        <v>7019</v>
       </c>
       <c r="H91" s="51">
-        <v>40056</v>
+        <v>40032</v>
       </c>
       <c r="I91" s="28" t="s">
         <v>28</v>
@@ -7085,20 +7193,20 @@
         <v>28</v>
       </c>
       <c r="O91" s="29"/>
-      <c r="P91" s="24"/>
+      <c r="P91" s="50"/>
     </row>
     <row r="92" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="C92" s="65" t="s">
-        <v>388</v>
+        <v>234</v>
+      </c>
+      <c r="C92" s="57" t="s">
+        <v>376</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E92" s="26" t="s">
         <v>57</v>
@@ -7107,10 +7215,10 @@
         <v>33</v>
       </c>
       <c r="G92" s="26">
-        <v>7045</v>
+        <v>7021</v>
       </c>
       <c r="H92" s="51">
-        <v>40058</v>
+        <v>40034</v>
       </c>
       <c r="I92" s="28" t="s">
         <v>28</v>
@@ -7122,7 +7230,7 @@
         <v>100</v>
       </c>
       <c r="L92" s="28" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="M92" s="28" t="s">
         <v>28</v>
@@ -7135,11 +7243,17 @@
     </row>
     <row r="93" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
-        <v>79</v>
-      </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>224</v>
+      </c>
       <c r="E93" s="26" t="s">
         <v>57</v>
       </c>
@@ -7147,10 +7261,10 @@
         <v>33</v>
       </c>
       <c r="G93" s="26">
-        <v>7047</v>
-      </c>
-      <c r="H93" s="33">
-        <v>40060</v>
+        <v>7023</v>
+      </c>
+      <c r="H93" s="51">
+        <v>40036</v>
       </c>
       <c r="I93" s="28" t="s">
         <v>28</v>
@@ -7159,10 +7273,10 @@
         <v>0</v>
       </c>
       <c r="K93" s="28">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L93" s="28" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="M93" s="28" t="s">
         <v>28</v>
@@ -7171,20 +7285,20 @@
         <v>28</v>
       </c>
       <c r="O93" s="29"/>
-      <c r="P93" s="50"/>
+      <c r="P93" s="24"/>
     </row>
     <row r="94" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="C94" s="24" t="s">
-        <v>389</v>
+        <v>236</v>
+      </c>
+      <c r="C94" s="57" t="s">
+        <v>378</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="E94" s="26" t="s">
         <v>57</v>
@@ -7193,10 +7307,10 @@
         <v>33</v>
       </c>
       <c r="G94" s="26">
-        <v>7053</v>
+        <v>7025</v>
       </c>
       <c r="H94" s="51">
-        <v>40062</v>
+        <v>40038</v>
       </c>
       <c r="I94" s="28" t="s">
         <v>28</v>
@@ -7208,7 +7322,7 @@
         <v>100</v>
       </c>
       <c r="L94" s="28" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="M94" s="28" t="s">
         <v>28</v>
@@ -7216,465 +7330,521 @@
       <c r="N94" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="O94" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="P94" s="52"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="24"/>
     </row>
     <row r="95" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
-        <v>81</v>
-      </c>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F95" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G95" s="22"/>
+        <v>69</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" s="57" t="s">
+        <v>379</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95" s="26">
+        <v>7027</v>
+      </c>
       <c r="H95" s="51">
-        <v>40064</v>
-      </c>
-      <c r="I95" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J95" s="18">
+        <v>40040</v>
+      </c>
+      <c r="I95" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J95" s="28">
         <v>0</v>
       </c>
-      <c r="K95" s="18">
-        <v>3</v>
-      </c>
-      <c r="L95" s="18"/>
-      <c r="M95" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N95" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O95" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="P95" s="15"/>
+      <c r="K95" s="28">
+        <v>100</v>
+      </c>
+      <c r="L95" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M95" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N95" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O95" s="29"/>
+      <c r="P95" s="24"/>
     </row>
     <row r="96" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
-        <v>82</v>
-      </c>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D96" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F96" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G96" s="22"/>
+        <v>70</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" s="26">
+        <v>7029</v>
+      </c>
       <c r="H96" s="51">
-        <v>40065</v>
-      </c>
-      <c r="I96" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J96" s="18">
+        <v>40042</v>
+      </c>
+      <c r="I96" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J96" s="28">
         <v>0</v>
       </c>
-      <c r="K96" s="18">
-        <v>2</v>
-      </c>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N96" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O96" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="P96" s="15"/>
+      <c r="K96" s="28">
+        <v>100</v>
+      </c>
+      <c r="L96" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M96" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N96" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O96" s="29"/>
+      <c r="P96" s="24"/>
     </row>
     <row r="97" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
-        <v>83</v>
-      </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="E97" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E97" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F97" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G97" s="22"/>
+      <c r="F97" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G97" s="26">
+        <v>7031</v>
+      </c>
       <c r="H97" s="51">
-        <v>40066</v>
-      </c>
-      <c r="I97" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J97" s="18">
+        <v>40044</v>
+      </c>
+      <c r="I97" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J97" s="28">
         <v>0</v>
       </c>
-      <c r="K97" s="42">
-        <v>10000</v>
-      </c>
-      <c r="L97" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="M97" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N97" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O97" s="19"/>
-      <c r="P97" s="15"/>
+      <c r="K97" s="28">
+        <v>100</v>
+      </c>
+      <c r="L97" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M97" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N97" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O97" s="29"/>
+      <c r="P97" s="24"/>
     </row>
     <row r="98" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
-        <v>84</v>
-      </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="E98" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="E98" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F98" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G98" s="22"/>
+      <c r="F98" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G98" s="26">
+        <v>7033</v>
+      </c>
       <c r="H98" s="51">
-        <v>40068</v>
-      </c>
-      <c r="I98" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J98" s="18">
+        <v>40046</v>
+      </c>
+      <c r="I98" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J98" s="28">
         <v>0</v>
       </c>
-      <c r="K98" s="42">
-        <v>10000</v>
-      </c>
-      <c r="L98" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="M98" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N98" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O98" s="19"/>
-      <c r="P98" s="15"/>
+      <c r="K98" s="28">
+        <v>100</v>
+      </c>
+      <c r="L98" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M98" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N98" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O98" s="29"/>
+      <c r="P98" s="24"/>
     </row>
     <row r="99" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
-        <v>85</v>
-      </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="E99" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="E99" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F99" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G99" s="22"/>
+      <c r="F99" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" s="26">
+        <v>7035</v>
+      </c>
       <c r="H99" s="51">
-        <v>40070</v>
-      </c>
-      <c r="I99" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J99" s="18">
+        <v>40048</v>
+      </c>
+      <c r="I99" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J99" s="28">
         <v>0</v>
       </c>
-      <c r="K99" s="42">
-        <v>10000</v>
-      </c>
-      <c r="L99" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="M99" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N99" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O99" s="19"/>
-      <c r="P99" s="15"/>
+      <c r="K99" s="28">
+        <v>100</v>
+      </c>
+      <c r="L99" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M99" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N99" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O99" s="29"/>
+      <c r="P99" s="24"/>
     </row>
     <row r="100" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
-        <v>86</v>
-      </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="E100" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C100" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E100" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F100" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G100" s="22"/>
+      <c r="F100" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G100" s="26">
+        <v>7037</v>
+      </c>
       <c r="H100" s="51">
-        <v>40072</v>
-      </c>
-      <c r="I100" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J100" s="18">
+        <v>40050</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J100" s="28">
         <v>0</v>
       </c>
-      <c r="K100" s="42">
-        <v>300</v>
-      </c>
-      <c r="L100" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="M100" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N100" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O100" s="19"/>
-      <c r="P100" s="15"/>
+      <c r="K100" s="28">
+        <v>100</v>
+      </c>
+      <c r="L100" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M100" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N100" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O100" s="29"/>
+      <c r="P100" s="24"/>
     </row>
     <row r="101" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
-        <v>87</v>
-      </c>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="E101" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C101" s="57" t="s">
+        <v>385</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E101" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F101" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G101" s="22"/>
+      <c r="F101" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G101" s="26">
+        <v>7039</v>
+      </c>
       <c r="H101" s="51">
-        <v>40074</v>
-      </c>
-      <c r="I101" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J101" s="18">
+        <v>40052</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J101" s="28">
         <v>0</v>
       </c>
-      <c r="K101" s="42">
-        <v>300</v>
-      </c>
-      <c r="L101" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="M101" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N101" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O101" s="19"/>
-      <c r="P101" s="15"/>
+      <c r="K101" s="28">
+        <v>100</v>
+      </c>
+      <c r="L101" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M101" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N101" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O101" s="29"/>
+      <c r="P101" s="24"/>
     </row>
     <row r="102" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
-        <v>88</v>
-      </c>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="E102" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C102" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E102" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F102" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G102" s="22"/>
+      <c r="F102" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G102" s="26">
+        <v>7041</v>
+      </c>
       <c r="H102" s="51">
-        <v>40076</v>
-      </c>
-      <c r="I102" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J102" s="18">
+        <v>40054</v>
+      </c>
+      <c r="I102" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J102" s="28">
         <v>0</v>
       </c>
-      <c r="K102" s="42">
-        <v>300</v>
-      </c>
-      <c r="L102" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="M102" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N102" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O102" s="19"/>
-      <c r="P102" s="15"/>
+      <c r="K102" s="28">
+        <v>100</v>
+      </c>
+      <c r="L102" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M102" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N102" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O102" s="29"/>
+      <c r="P102" s="24"/>
     </row>
     <row r="103" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
-        <v>88</v>
-      </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="E103" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E103" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F103" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G103" s="22"/>
+      <c r="F103" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G103" s="26">
+        <v>7043</v>
+      </c>
       <c r="H103" s="51">
-        <v>40078</v>
-      </c>
-      <c r="I103" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J103" s="18">
+        <v>40056</v>
+      </c>
+      <c r="I103" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J103" s="28">
         <v>0</v>
       </c>
-      <c r="K103" s="42">
-        <v>300</v>
-      </c>
-      <c r="L103" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="M103" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N103" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O103" s="19"/>
-      <c r="P103" s="15"/>
+      <c r="K103" s="28">
+        <v>100</v>
+      </c>
+      <c r="L103" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M103" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N103" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O103" s="29"/>
+      <c r="P103" s="24"/>
     </row>
     <row r="104" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
-        <v>88</v>
-      </c>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="E104" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C104" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E104" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F104" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G104" s="22"/>
+      <c r="F104" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G104" s="26">
+        <v>7045</v>
+      </c>
       <c r="H104" s="51">
-        <v>40080</v>
-      </c>
-      <c r="I104" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J104" s="18">
+        <v>40058</v>
+      </c>
+      <c r="I104" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J104" s="28">
         <v>0</v>
       </c>
-      <c r="K104" s="42">
-        <v>300</v>
-      </c>
-      <c r="L104" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="M104" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N104" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O104" s="19"/>
-      <c r="P104" s="15"/>
-    </row>
-    <row r="105" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K104" s="28">
+        <v>100</v>
+      </c>
+      <c r="L104" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M104" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N104" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O104" s="29"/>
+      <c r="P104" s="24"/>
+    </row>
+    <row r="105" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
-        <v>89</v>
-      </c>
-      <c r="B105" s="62" t="s">
-        <v>276</v>
-      </c>
-      <c r="C105" s="63"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="63"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="63"/>
-      <c r="J105" s="63"/>
-      <c r="K105" s="63"/>
-      <c r="L105" s="63"/>
-      <c r="M105" s="63"/>
-      <c r="N105" s="63"/>
-      <c r="O105" s="63"/>
-      <c r="P105" s="64"/>
+        <v>79</v>
+      </c>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G105" s="26">
+        <v>7047</v>
+      </c>
+      <c r="H105" s="33">
+        <v>40060</v>
+      </c>
+      <c r="I105" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J105" s="28">
+        <v>0</v>
+      </c>
+      <c r="K105" s="28">
+        <v>150</v>
+      </c>
+      <c r="L105" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M105" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N105" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O105" s="29"/>
+      <c r="P105" s="50"/>
     </row>
     <row r="106" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
-        <v>90</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="C106" s="67" t="s">
-        <v>401</v>
+        <v>80</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>389</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="E106" s="26" t="s">
         <v>57</v>
@@ -7683,10 +7853,10 @@
         <v>33</v>
       </c>
       <c r="G106" s="26">
-        <v>7149</v>
+        <v>7053</v>
       </c>
       <c r="H106" s="51">
-        <v>40110</v>
+        <v>40062</v>
       </c>
       <c r="I106" s="28" t="s">
         <v>28</v>
@@ -7695,10 +7865,10 @@
         <v>0</v>
       </c>
       <c r="K106" s="28">
-        <v>3500</v>
+        <v>100</v>
       </c>
       <c r="L106" s="28" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M106" s="28" t="s">
         <v>28</v>
@@ -7706,527 +7876,465 @@
       <c r="N106" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="O106" s="29"/>
-      <c r="P106" s="24"/>
+      <c r="O106" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="P106" s="52"/>
     </row>
     <row r="107" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
-        <v>91</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="C107" s="67" t="s">
-        <v>402</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="E107" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F107" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G107" s="26">
-        <v>7151</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G107" s="22"/>
       <c r="H107" s="51">
-        <v>40112</v>
-      </c>
-      <c r="I107" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J107" s="28">
-        <v>-20</v>
-      </c>
-      <c r="K107" s="28">
-        <v>80</v>
-      </c>
-      <c r="L107" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="M107" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N107" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O107" s="29"/>
-      <c r="P107" s="24"/>
-    </row>
-    <row r="108" spans="1:16" s="21" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40064</v>
+      </c>
+      <c r="I107" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J107" s="18">
+        <v>0</v>
+      </c>
+      <c r="K107" s="18">
+        <v>3</v>
+      </c>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N107" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O107" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="P107" s="15"/>
+    </row>
+    <row r="108" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
-        <v>92</v>
-      </c>
-      <c r="B108" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="C108" s="66" t="s">
-        <v>390</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="E108" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F108" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G108" s="26">
-        <v>7117</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G108" s="22"/>
       <c r="H108" s="51">
-        <v>40114</v>
-      </c>
-      <c r="I108" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J108" s="28">
+        <v>40065</v>
+      </c>
+      <c r="I108" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J108" s="18">
         <v>0</v>
       </c>
-      <c r="K108" s="28">
-        <v>100</v>
-      </c>
-      <c r="L108" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="M108" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N108" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O108" s="29"/>
-      <c r="P108" s="24"/>
+      <c r="K108" s="18">
+        <v>2</v>
+      </c>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N108" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O108" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="P108" s="15"/>
     </row>
     <row r="109" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
-        <v>93</v>
-      </c>
-      <c r="B109" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="C109" s="65" t="s">
-        <v>391</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="E109" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E109" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F109" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G109" s="26">
-        <v>7101</v>
-      </c>
+      <c r="F109" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G109" s="22"/>
       <c r="H109" s="51">
-        <v>40116</v>
-      </c>
-      <c r="I109" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J109" s="28">
+        <v>40066</v>
+      </c>
+      <c r="I109" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J109" s="18">
         <v>0</v>
       </c>
-      <c r="K109" s="28">
-        <v>100</v>
-      </c>
-      <c r="L109" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M109" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N109" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O109" s="29"/>
-      <c r="P109" s="24"/>
+      <c r="K109" s="42">
+        <v>10000</v>
+      </c>
+      <c r="L109" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="M109" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N109" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O109" s="19"/>
+      <c r="P109" s="15"/>
     </row>
     <row r="110" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
-        <v>94</v>
-      </c>
-      <c r="B110" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="C110" s="65" t="s">
-        <v>392</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="E110" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="E110" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F110" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G110" s="26">
-        <v>7103</v>
-      </c>
+      <c r="F110" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G110" s="22"/>
       <c r="H110" s="51">
-        <v>40118</v>
-      </c>
-      <c r="I110" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J110" s="28">
+        <v>40068</v>
+      </c>
+      <c r="I110" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J110" s="18">
         <v>0</v>
       </c>
-      <c r="K110" s="28">
-        <v>100</v>
-      </c>
-      <c r="L110" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M110" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N110" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O110" s="29"/>
-      <c r="P110" s="24"/>
+      <c r="K110" s="42">
+        <v>10000</v>
+      </c>
+      <c r="L110" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="M110" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N110" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O110" s="19"/>
+      <c r="P110" s="15"/>
     </row>
     <row r="111" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
-        <v>95</v>
-      </c>
-      <c r="B111" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="C111" s="65" t="s">
-        <v>393</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="E111" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E111" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F111" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G111" s="26">
-        <v>7105</v>
-      </c>
+      <c r="F111" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G111" s="22"/>
       <c r="H111" s="51">
-        <v>40120</v>
-      </c>
-      <c r="I111" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J111" s="28">
+        <v>40070</v>
+      </c>
+      <c r="I111" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J111" s="18">
         <v>0</v>
       </c>
-      <c r="K111" s="28">
-        <v>100</v>
-      </c>
-      <c r="L111" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M111" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N111" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O111" s="29"/>
-      <c r="P111" s="24"/>
+      <c r="K111" s="42">
+        <v>10000</v>
+      </c>
+      <c r="L111" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="M111" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N111" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O111" s="19"/>
+      <c r="P111" s="15"/>
     </row>
     <row r="112" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
-        <v>96</v>
-      </c>
-      <c r="B112" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="C112" s="65" t="s">
-        <v>394</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="E112" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E112" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F112" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G112" s="26">
-        <v>7107</v>
-      </c>
+      <c r="F112" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G112" s="22"/>
       <c r="H112" s="51">
-        <v>40122</v>
-      </c>
-      <c r="I112" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J112" s="28">
+        <v>40072</v>
+      </c>
+      <c r="I112" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J112" s="18">
         <v>0</v>
       </c>
-      <c r="K112" s="28">
-        <v>100</v>
-      </c>
-      <c r="L112" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M112" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N112" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O112" s="29"/>
-      <c r="P112" s="24"/>
+      <c r="K112" s="42">
+        <v>300</v>
+      </c>
+      <c r="L112" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="M112" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N112" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O112" s="19"/>
+      <c r="P112" s="15"/>
     </row>
     <row r="113" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
-        <v>97</v>
-      </c>
-      <c r="B113" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="C113" s="65" t="s">
-        <v>395</v>
-      </c>
-      <c r="D113" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="E113" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E113" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F113" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G113" s="26">
-        <v>7109</v>
-      </c>
+      <c r="F113" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G113" s="22"/>
       <c r="H113" s="51">
-        <v>40124</v>
-      </c>
-      <c r="I113" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J113" s="28">
+        <v>40074</v>
+      </c>
+      <c r="I113" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J113" s="18">
         <v>0</v>
       </c>
-      <c r="K113" s="28">
-        <v>100</v>
-      </c>
-      <c r="L113" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M113" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N113" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O113" s="29"/>
-      <c r="P113" s="24"/>
+      <c r="K113" s="42">
+        <v>300</v>
+      </c>
+      <c r="L113" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="M113" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N113" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O113" s="19"/>
+      <c r="P113" s="15"/>
     </row>
     <row r="114" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
-        <v>98</v>
-      </c>
-      <c r="B114" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="C114" s="65" t="s">
-        <v>396</v>
-      </c>
-      <c r="D114" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="E114" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="E114" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F114" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G114" s="26">
-        <v>7111</v>
-      </c>
+      <c r="F114" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G114" s="22"/>
       <c r="H114" s="51">
-        <v>40126</v>
-      </c>
-      <c r="I114" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J114" s="28">
+        <v>40076</v>
+      </c>
+      <c r="I114" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J114" s="18">
         <v>0</v>
       </c>
-      <c r="K114" s="28">
-        <v>100</v>
-      </c>
-      <c r="L114" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M114" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N114" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O114" s="29"/>
-      <c r="P114" s="24"/>
+      <c r="K114" s="42">
+        <v>300</v>
+      </c>
+      <c r="L114" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="M114" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N114" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O114" s="19"/>
+      <c r="P114" s="15"/>
     </row>
     <row r="115" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
-        <v>99</v>
-      </c>
-      <c r="B115" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="C115" s="65" t="s">
-        <v>397</v>
-      </c>
-      <c r="D115" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="E115" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="E115" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F115" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G115" s="26">
-        <v>7113</v>
-      </c>
+      <c r="F115" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G115" s="22"/>
       <c r="H115" s="51">
-        <v>40128</v>
-      </c>
-      <c r="I115" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J115" s="28">
+        <v>40078</v>
+      </c>
+      <c r="I115" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J115" s="18">
         <v>0</v>
       </c>
-      <c r="K115" s="28">
-        <v>100</v>
-      </c>
-      <c r="L115" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M115" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N115" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O115" s="29"/>
-      <c r="P115" s="24"/>
+      <c r="K115" s="42">
+        <v>300</v>
+      </c>
+      <c r="L115" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="M115" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N115" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O115" s="19"/>
+      <c r="P115" s="15"/>
     </row>
     <row r="116" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
-        <v>100</v>
-      </c>
-      <c r="B116" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="C116" s="65" t="s">
-        <v>398</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="E116" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E116" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F116" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G116" s="26">
-        <v>7115</v>
-      </c>
+      <c r="F116" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G116" s="22"/>
       <c r="H116" s="51">
-        <v>40130</v>
-      </c>
-      <c r="I116" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J116" s="28">
+        <v>40080</v>
+      </c>
+      <c r="I116" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J116" s="18">
         <v>0</v>
       </c>
-      <c r="K116" s="28">
-        <v>100</v>
-      </c>
-      <c r="L116" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M116" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N116" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O116" s="29"/>
-      <c r="P116" s="24"/>
-    </row>
-    <row r="117" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K116" s="42">
+        <v>300</v>
+      </c>
+      <c r="L116" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="M116" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N116" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O116" s="19"/>
+      <c r="P116" s="15"/>
+    </row>
+    <row r="117" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
-        <v>108</v>
-      </c>
-      <c r="B117" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="C117" s="66" t="s">
-        <v>399</v>
-      </c>
-      <c r="D117" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="E117" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F117" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G117" s="26">
-        <v>7133</v>
-      </c>
-      <c r="H117" s="51">
-        <v>40132</v>
-      </c>
-      <c r="I117" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J117" s="28">
-        <v>0</v>
-      </c>
-      <c r="K117" s="28">
-        <v>100</v>
-      </c>
-      <c r="L117" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="M117" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N117" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O117" s="29"/>
-      <c r="P117" s="24"/>
+        <v>89</v>
+      </c>
+      <c r="B117" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="C117" s="66"/>
+      <c r="D117" s="66"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+      <c r="L117" s="66"/>
+      <c r="M117" s="66"/>
+      <c r="N117" s="66"/>
+      <c r="O117" s="66"/>
+      <c r="P117" s="67"/>
     </row>
     <row r="118" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
-        <v>108</v>
-      </c>
-      <c r="B118" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="C118" s="65" t="s">
-        <v>400</v>
+        <v>90</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C118" s="59" t="s">
+        <v>401</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="E118" s="26" t="s">
         <v>57</v>
@@ -8235,10 +8343,10 @@
         <v>33</v>
       </c>
       <c r="G118" s="26">
-        <v>7133</v>
+        <v>7149</v>
       </c>
       <c r="H118" s="51">
-        <v>40136</v>
+        <v>40110</v>
       </c>
       <c r="I118" s="28" t="s">
         <v>28</v>
@@ -8247,10 +8355,10 @@
         <v>0</v>
       </c>
       <c r="K118" s="28">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="L118" s="28" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="M118" s="28" t="s">
         <v>28</v>
@@ -8263,16 +8371,16 @@
     </row>
     <row r="119" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
-        <v>109</v>
-      </c>
-      <c r="B119" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>308</v>
+        <v>91</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C119" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="D119" s="25" t="s">
+        <v>280</v>
       </c>
       <c r="E119" s="26" t="s">
         <v>57</v>
@@ -8281,22 +8389,22 @@
         <v>33</v>
       </c>
       <c r="G119" s="26">
-        <v>7135</v>
+        <v>7151</v>
       </c>
       <c r="H119" s="51">
-        <v>40138</v>
+        <v>40112</v>
       </c>
       <c r="I119" s="28" t="s">
         <v>28</v>
       </c>
       <c r="J119" s="28">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="K119" s="28">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L119" s="28" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="M119" s="28" t="s">
         <v>28</v>
@@ -8307,18 +8415,18 @@
       <c r="O119" s="29"/>
       <c r="P119" s="24"/>
     </row>
-    <row r="120" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" s="21" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>310</v>
+        <v>281</v>
+      </c>
+      <c r="C120" s="58" t="s">
+        <v>390</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>360</v>
       </c>
       <c r="E120" s="26" t="s">
         <v>57</v>
@@ -8327,10 +8435,10 @@
         <v>33</v>
       </c>
       <c r="G120" s="26">
-        <v>7137</v>
+        <v>7117</v>
       </c>
       <c r="H120" s="51">
-        <v>40140</v>
+        <v>40114</v>
       </c>
       <c r="I120" s="28" t="s">
         <v>28</v>
@@ -8342,7 +8450,7 @@
         <v>100</v>
       </c>
       <c r="L120" s="28" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="M120" s="28" t="s">
         <v>28</v>
@@ -8355,16 +8463,16 @@
     </row>
     <row r="121" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>312</v>
+        <v>282</v>
+      </c>
+      <c r="C121" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="D121" s="25" t="s">
+        <v>283</v>
       </c>
       <c r="E121" s="26" t="s">
         <v>57</v>
@@ -8373,10 +8481,10 @@
         <v>33</v>
       </c>
       <c r="G121" s="26">
-        <v>7139</v>
+        <v>7101</v>
       </c>
       <c r="H121" s="51">
-        <v>40142</v>
+        <v>40116</v>
       </c>
       <c r="I121" s="28" t="s">
         <v>28</v>
@@ -8388,7 +8496,7 @@
         <v>100</v>
       </c>
       <c r="L121" s="28" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M121" s="28" t="s">
         <v>28</v>
@@ -8401,16 +8509,16 @@
     </row>
     <row r="122" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>314</v>
+        <v>284</v>
+      </c>
+      <c r="C122" s="57" t="s">
+        <v>392</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>285</v>
       </c>
       <c r="E122" s="26" t="s">
         <v>57</v>
@@ -8419,10 +8527,10 @@
         <v>33</v>
       </c>
       <c r="G122" s="26">
-        <v>7141</v>
+        <v>7103</v>
       </c>
       <c r="H122" s="51">
-        <v>40144</v>
+        <v>40118</v>
       </c>
       <c r="I122" s="28" t="s">
         <v>28</v>
@@ -8434,7 +8542,7 @@
         <v>100</v>
       </c>
       <c r="L122" s="28" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M122" s="28" t="s">
         <v>28</v>
@@ -8447,16 +8555,16 @@
     </row>
     <row r="123" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>316</v>
+        <v>286</v>
+      </c>
+      <c r="C123" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>287</v>
       </c>
       <c r="E123" s="26" t="s">
         <v>57</v>
@@ -8465,10 +8573,10 @@
         <v>33</v>
       </c>
       <c r="G123" s="26">
-        <v>7143</v>
+        <v>7105</v>
       </c>
       <c r="H123" s="51">
-        <v>40146</v>
+        <v>40120</v>
       </c>
       <c r="I123" s="28" t="s">
         <v>28</v>
@@ -8480,7 +8588,7 @@
         <v>100</v>
       </c>
       <c r="L123" s="28" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M123" s="28" t="s">
         <v>28</v>
@@ -8493,16 +8601,16 @@
     </row>
     <row r="124" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>318</v>
+        <v>288</v>
+      </c>
+      <c r="C124" s="57" t="s">
+        <v>394</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>289</v>
       </c>
       <c r="E124" s="26" t="s">
         <v>57</v>
@@ -8511,10 +8619,10 @@
         <v>33</v>
       </c>
       <c r="G124" s="26">
-        <v>7145</v>
+        <v>7107</v>
       </c>
       <c r="H124" s="51">
-        <v>40148</v>
+        <v>40122</v>
       </c>
       <c r="I124" s="28" t="s">
         <v>28</v>
@@ -8526,7 +8634,7 @@
         <v>100</v>
       </c>
       <c r="L124" s="28" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="M124" s="28" t="s">
         <v>28</v>
@@ -8539,16 +8647,16 @@
     </row>
     <row r="125" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>320</v>
+        <v>290</v>
+      </c>
+      <c r="C125" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>291</v>
       </c>
       <c r="E125" s="26" t="s">
         <v>57</v>
@@ -8557,10 +8665,10 @@
         <v>33</v>
       </c>
       <c r="G125" s="26">
-        <v>7147</v>
+        <v>7109</v>
       </c>
       <c r="H125" s="51">
-        <v>40150</v>
+        <v>40124</v>
       </c>
       <c r="I125" s="28" t="s">
         <v>28</v>
@@ -8569,10 +8677,10 @@
         <v>0</v>
       </c>
       <c r="K125" s="28">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L125" s="28" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="M125" s="28" t="s">
         <v>28</v>
@@ -8585,16 +8693,16 @@
     </row>
     <row r="126" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>322</v>
+        <v>292</v>
+      </c>
+      <c r="C126" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="E126" s="26" t="s">
         <v>57</v>
@@ -8603,10 +8711,10 @@
         <v>33</v>
       </c>
       <c r="G126" s="26">
-        <v>7153</v>
+        <v>7111</v>
       </c>
       <c r="H126" s="51">
-        <v>40152</v>
+        <v>40126</v>
       </c>
       <c r="I126" s="28" t="s">
         <v>28</v>
@@ -8618,7 +8726,7 @@
         <v>100</v>
       </c>
       <c r="L126" s="28" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M126" s="28" t="s">
         <v>28</v>
@@ -8626,115 +8734,667 @@
       <c r="N126" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="O126" s="29" t="s">
-        <v>255</v>
-      </c>
+      <c r="O126" s="29"/>
       <c r="P126" s="24"/>
     </row>
     <row r="127" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
-        <v>88</v>
-      </c>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="D127" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="E127" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C127" s="57" t="s">
+        <v>397</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="E127" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F127" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G127" s="22"/>
+      <c r="F127" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G127" s="26">
+        <v>7113</v>
+      </c>
       <c r="H127" s="51">
-        <v>40164</v>
-      </c>
-      <c r="I127" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J127" s="18">
+        <v>40128</v>
+      </c>
+      <c r="I127" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J127" s="28">
         <v>0</v>
       </c>
-      <c r="K127" s="42">
-        <v>300</v>
-      </c>
-      <c r="L127" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="M127" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N127" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O127" s="19"/>
-      <c r="P127" s="15"/>
+      <c r="K127" s="28">
+        <v>100</v>
+      </c>
+      <c r="L127" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M127" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N127" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O127" s="29"/>
+      <c r="P127" s="24"/>
     </row>
     <row r="128" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14">
+        <v>100</v>
+      </c>
+      <c r="B128" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C128" s="57" t="s">
+        <v>398</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F128" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G128" s="26">
+        <v>7115</v>
+      </c>
+      <c r="H128" s="51">
+        <v>40130</v>
+      </c>
+      <c r="I128" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J128" s="28">
+        <v>0</v>
+      </c>
+      <c r="K128" s="28">
+        <v>100</v>
+      </c>
+      <c r="L128" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M128" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N128" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O128" s="29"/>
+      <c r="P128" s="24"/>
+    </row>
+    <row r="129" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="14">
+        <v>108</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C129" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F129" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G129" s="26">
+        <v>7133</v>
+      </c>
+      <c r="H129" s="51">
+        <v>40132</v>
+      </c>
+      <c r="I129" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J129" s="28">
+        <v>0</v>
+      </c>
+      <c r="K129" s="28">
+        <v>100</v>
+      </c>
+      <c r="L129" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M129" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N129" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O129" s="29"/>
+      <c r="P129" s="24"/>
+    </row>
+    <row r="130" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="14">
+        <v>108</v>
+      </c>
+      <c r="B130" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C130" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G130" s="26">
+        <v>7133</v>
+      </c>
+      <c r="H130" s="51">
+        <v>40136</v>
+      </c>
+      <c r="I130" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J130" s="28">
+        <v>0</v>
+      </c>
+      <c r="K130" s="28">
+        <v>100</v>
+      </c>
+      <c r="L130" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M130" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N130" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O130" s="29"/>
+      <c r="P130" s="24"/>
+    </row>
+    <row r="131" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14">
+        <v>109</v>
+      </c>
+      <c r="B131" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F131" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G131" s="26">
+        <v>7135</v>
+      </c>
+      <c r="H131" s="51">
+        <v>40138</v>
+      </c>
+      <c r="I131" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J131" s="28">
+        <v>0</v>
+      </c>
+      <c r="K131" s="28">
+        <v>100</v>
+      </c>
+      <c r="L131" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M131" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N131" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O131" s="29"/>
+      <c r="P131" s="24"/>
+    </row>
+    <row r="132" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="14">
+        <v>110</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F132" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G132" s="26">
+        <v>7137</v>
+      </c>
+      <c r="H132" s="51">
+        <v>40140</v>
+      </c>
+      <c r="I132" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J132" s="28">
+        <v>0</v>
+      </c>
+      <c r="K132" s="28">
+        <v>100</v>
+      </c>
+      <c r="L132" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M132" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N132" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O132" s="29"/>
+      <c r="P132" s="24"/>
+    </row>
+    <row r="133" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="14">
+        <v>111</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F133" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G133" s="26">
+        <v>7139</v>
+      </c>
+      <c r="H133" s="51">
+        <v>40142</v>
+      </c>
+      <c r="I133" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J133" s="28">
+        <v>0</v>
+      </c>
+      <c r="K133" s="28">
+        <v>100</v>
+      </c>
+      <c r="L133" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M133" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N133" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O133" s="29"/>
+      <c r="P133" s="24"/>
+    </row>
+    <row r="134" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="14">
+        <v>112</v>
+      </c>
+      <c r="B134" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F134" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G134" s="26">
+        <v>7141</v>
+      </c>
+      <c r="H134" s="51">
+        <v>40144</v>
+      </c>
+      <c r="I134" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J134" s="28">
+        <v>0</v>
+      </c>
+      <c r="K134" s="28">
+        <v>100</v>
+      </c>
+      <c r="L134" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M134" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N134" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O134" s="29"/>
+      <c r="P134" s="24"/>
+    </row>
+    <row r="135" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="14">
+        <v>113</v>
+      </c>
+      <c r="B135" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F135" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G135" s="26">
+        <v>7143</v>
+      </c>
+      <c r="H135" s="51">
+        <v>40146</v>
+      </c>
+      <c r="I135" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J135" s="28">
+        <v>0</v>
+      </c>
+      <c r="K135" s="28">
+        <v>100</v>
+      </c>
+      <c r="L135" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M135" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N135" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O135" s="29"/>
+      <c r="P135" s="24"/>
+    </row>
+    <row r="136" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="14">
+        <v>114</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F136" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G136" s="26">
+        <v>7145</v>
+      </c>
+      <c r="H136" s="51">
+        <v>40148</v>
+      </c>
+      <c r="I136" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J136" s="28">
+        <v>0</v>
+      </c>
+      <c r="K136" s="28">
+        <v>100</v>
+      </c>
+      <c r="L136" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M136" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N136" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O136" s="29"/>
+      <c r="P136" s="24"/>
+    </row>
+    <row r="137" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="14">
+        <v>115</v>
+      </c>
+      <c r="B137" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F137" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G137" s="26">
+        <v>7147</v>
+      </c>
+      <c r="H137" s="51">
+        <v>40150</v>
+      </c>
+      <c r="I137" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J137" s="28">
+        <v>0</v>
+      </c>
+      <c r="K137" s="28">
+        <v>150</v>
+      </c>
+      <c r="L137" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M137" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N137" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O137" s="29"/>
+      <c r="P137" s="24"/>
+    </row>
+    <row r="138" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="14">
+        <v>116</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F138" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G138" s="26">
+        <v>7153</v>
+      </c>
+      <c r="H138" s="51">
+        <v>40152</v>
+      </c>
+      <c r="I138" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J138" s="28">
+        <v>0</v>
+      </c>
+      <c r="K138" s="28">
+        <v>100</v>
+      </c>
+      <c r="L138" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="M138" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N138" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O138" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="P138" s="24"/>
+    </row>
+    <row r="139" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="14">
         <v>88</v>
       </c>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15" t="s">
+      <c r="B139" s="15"/>
+      <c r="C139" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G139" s="22"/>
+      <c r="H139" s="51">
+        <v>40154</v>
+      </c>
+      <c r="I139" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J139" s="18">
+        <v>0</v>
+      </c>
+      <c r="K139" s="42">
+        <v>300</v>
+      </c>
+      <c r="L139" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="M139" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N139" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O139" s="19"/>
+      <c r="P139" s="15"/>
+    </row>
+    <row r="140" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="14">
+        <v>88</v>
+      </c>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="D128" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="E128" s="17" t="s">
+      <c r="D140" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="E140" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F128" s="17" t="s">
+      <c r="F140" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="G128" s="22"/>
-      <c r="H128" s="51">
-        <v>40168</v>
-      </c>
-      <c r="I128" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J128" s="18">
+      <c r="G140" s="22"/>
+      <c r="H140" s="51">
+        <v>40156</v>
+      </c>
+      <c r="I140" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J140" s="18">
         <v>0</v>
       </c>
-      <c r="K128" s="42">
+      <c r="K140" s="42">
         <v>300</v>
       </c>
-      <c r="L128" s="43" t="s">
+      <c r="L140" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="M128" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N128" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O128" s="19"/>
-      <c r="P128" s="15"/>
-    </row>
-    <row r="129" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="47"/>
-      <c r="D129" s="47"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="17"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="34"/>
-      <c r="I129" s="18"/>
-      <c r="J129" s="18"/>
-      <c r="K129" s="18"/>
-      <c r="L129" s="18"/>
-      <c r="M129" s="18"/>
-      <c r="N129" s="18"/>
-      <c r="O129" s="19"/>
-      <c r="P129" s="15"/>
-    </row>
-    <row r="133" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B133" s="32" t="s">
+      <c r="M140" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N140" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O140" s="19"/>
+      <c r="P140" s="15"/>
+    </row>
+    <row r="141" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="14"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="47"/>
+      <c r="D141" s="47"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="22"/>
+      <c r="H141" s="34"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18"/>
+      <c r="N141" s="18"/>
+      <c r="O141" s="19"/>
+      <c r="P141" s="15"/>
+    </row>
+    <row r="145" spans="2:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B145" s="32" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8742,9 +9402,9 @@
   <mergeCells count="5">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B38:P38"/>
-    <mergeCell ref="B59:P59"/>
-    <mergeCell ref="B67:P67"/>
-    <mergeCell ref="B105:P105"/>
+    <mergeCell ref="B71:P71"/>
+    <mergeCell ref="B79:P79"/>
+    <mergeCell ref="B117:P117"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8756,8 +9416,8 @@
 </oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="58" max="15" man="1"/>
-    <brk id="104" max="15" man="1"/>
+    <brk id="70" max="15" man="1"/>
+    <brk id="116" max="15" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8793,21 +9453,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
       <c r="O1" s="7" t="s">
         <v>404</v>
       </c>
@@ -9594,22 +10254,22 @@
       <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="61"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="64"/>
     </row>
     <row r="21" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -10246,22 +10906,22 @@
       <c r="A35" s="14">
         <v>33</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="64"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="67"/>
     </row>
     <row r="36" spans="1:16" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
@@ -10314,22 +10974,22 @@
       <c r="A37" s="14">
         <v>35</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="64"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="67"/>
     </row>
     <row r="38" spans="1:16" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
@@ -11486,22 +12146,22 @@
       <c r="A65" s="14">
         <v>63</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="63"/>
-      <c r="K65" s="63"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="63"/>
-      <c r="O65" s="64"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="67"/>
     </row>
     <row r="66" spans="1:15" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
@@ -12258,21 +12918,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9E048A78312A94897F0E6646B12AFBF" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7abb3b361358b065e226e2691a9a9dbd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b8b857fa-ab8c-46db-8ae6-f4c6b17fc121" xmlns:ns3="27204c16-4a37-455d-9af4-3dab56a7ac7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636fad88d2de2b9608e4f461b7203fff" ns2:_="" ns3:_="">
     <xsd:import namespace="b8b857fa-ab8c-46db-8ae6-f4c6b17fc121"/>
@@ -12475,24 +13120,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93D610DB-2612-46C9-BC3A-E7E198938908}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E7456FA-3502-4744-AF75-C74DDC4FA618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46ADFC53-F231-4A71-A183-DB4D3C802BF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12509,4 +13152,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E7456FA-3502-4744-AF75-C74DDC4FA618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93D610DB-2612-46C9-BC3A-E7E198938908}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>